--- a/Stocks/META.xlsx
+++ b/Stocks/META.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://academiafaedupt-my.sharepoint.com/personal/sbclemente_academiafa_edu_pt/Documents/Financials/Ações/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://academiafaedupt-my.sharepoint.com/personal/sbclemente_academiafa_edu_pt/Documents/Gigs/WorkingFolder/Finance/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="8_{91A85DBD-37F5-495F-9D0D-AFC39F49FA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0A93E9C-07C6-43ED-B149-03C9023D0512}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="8_{91A85DBD-37F5-495F-9D0D-AFC39F49FA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81DA1163-5BD7-4139-9D09-FD36EBC7579F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A4478C07-9115-4914-9DE9-A3B7CC45EB27}"/>
+    <workbookView xWindow="31170" yWindow="1440" windowWidth="23190" windowHeight="13170" activeTab="1" xr2:uid="{A4478C07-9115-4914-9DE9-A3B7CC45EB27}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="74">
   <si>
     <t>META</t>
   </si>
@@ -250,6 +250,15 @@
   </si>
   <si>
     <t>EV/E 24</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>Q125</t>
   </si>
 </sst>
 </file>
@@ -309,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -320,7 +329,6 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -342,14 +350,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>893445</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>893445</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
@@ -366,8 +374,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8298180" y="53340"/>
-          <a:ext cx="0" cy="5486400"/>
+          <a:off x="10694670" y="53340"/>
+          <a:ext cx="0" cy="5882640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -392,13 +400,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -766,12 +774,12 @@
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -782,7 +790,7 @@
         <v>537.5</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K3" t="s">
         <v>2</v>
       </c>
@@ -794,7 +802,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K4" t="s">
         <v>3</v>
       </c>
@@ -806,7 +814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K5" t="s">
         <v>4</v>
       </c>
@@ -818,7 +826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K6" t="s">
         <v>5</v>
       </c>
@@ -830,7 +838,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K7" t="s">
         <v>6</v>
       </c>
@@ -839,17 +847,17 @@
         <v>1346120.5047375001</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="M8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K9" t="s">
         <v>70</v>
       </c>
-      <c r="L9" s="10">
-        <f>+L7/model!R14</f>
+      <c r="L9">
+        <f>+L7/model!U14</f>
         <v>34.207690316926467</v>
       </c>
     </row>
@@ -860,26 +868,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{258B6DA0-8374-4467-8FA3-46D3F4C0B8C0}">
-  <dimension ref="A2:BE61"/>
+  <dimension ref="A2:BH61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="K13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S14" sqref="S14"/>
+      <selection pane="bottomRight" activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.796875" customWidth="1"/>
-    <col min="12" max="12" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="17.59765625" customWidth="1"/>
-    <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="14" max="14" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.75" customWidth="1"/>
+    <col min="16" max="16" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="17.625" customWidth="1"/>
+    <col min="22" max="22" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -913,87 +922,48 @@
       <c r="K2" t="s">
         <v>19</v>
       </c>
-      <c r="Q2">
+      <c r="L2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N2" t="s">
+        <v>73</v>
+      </c>
+      <c r="T2">
         <v>2022</v>
       </c>
-      <c r="R2">
-        <f>+Q2+1</f>
+      <c r="U2">
+        <f>+T2+1</f>
         <v>2023</v>
       </c>
-      <c r="S2">
-        <f t="shared" ref="S2:AJ2" si="0">+R2+1</f>
+      <c r="V2">
+        <f t="shared" ref="V2:AM2" si="0">+U2+1</f>
         <v>2024</v>
       </c>
-      <c r="T2">
+      <c r="W2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="U2">
+      <c r="X2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="V2">
+      <c r="Y2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="W2">
+      <c r="Z2">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="X2">
+      <c r="AA2">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="Y2">
-        <f t="shared" si="0"/>
-        <v>2030</v>
-      </c>
-      <c r="Z2">
-        <f t="shared" si="0"/>
-        <v>2031</v>
-      </c>
-      <c r="AA2">
-        <f t="shared" si="0"/>
-        <v>2032</v>
-      </c>
-      <c r="AB2">
-        <f t="shared" si="0"/>
-        <v>2033</v>
-      </c>
-      <c r="AC2">
-        <f t="shared" si="0"/>
-        <v>2034</v>
-      </c>
-      <c r="AD2">
-        <f t="shared" si="0"/>
-        <v>2035</v>
-      </c>
-      <c r="AE2">
-        <f t="shared" si="0"/>
-        <v>2036</v>
-      </c>
-      <c r="AF2">
-        <f t="shared" si="0"/>
-        <v>2037</v>
-      </c>
-      <c r="AG2">
-        <f t="shared" si="0"/>
-        <v>2038</v>
-      </c>
-      <c r="AH2">
-        <f t="shared" si="0"/>
-        <v>2039</v>
-      </c>
-      <c r="AI2">
-        <f t="shared" si="0"/>
-        <v>2040</v>
-      </c>
-      <c r="AJ2">
-        <f t="shared" si="0"/>
-        <v>2041</v>
-      </c>
-    </row>
-    <row r="3" spans="1:57" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:60" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1027,88 +997,40 @@
       <c r="K3" s="4">
         <v>39071</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="T3" s="4">
         <f>SUM(B3:E3)</f>
         <v>116609</v>
       </c>
-      <c r="R3" s="4">
+      <c r="U3" s="4">
         <f>SUM(F3:I3)</f>
         <v>134901</v>
       </c>
-      <c r="S3" s="4">
-        <f t="shared" ref="S3:AJ3" si="1">+R3*(1-$N$16)</f>
-        <v>141646.05000000002</v>
-      </c>
-      <c r="T3" s="4">
-        <f t="shared" si="1"/>
-        <v>148728.35250000004</v>
-      </c>
-      <c r="U3" s="4">
-        <f t="shared" si="1"/>
-        <v>156164.77012500004</v>
-      </c>
       <c r="V3" s="4">
-        <f t="shared" si="1"/>
-        <v>163973.00863125004</v>
+        <f>+U3*1.2</f>
+        <v>161881.19999999998</v>
       </c>
       <c r="W3" s="4">
-        <f t="shared" si="1"/>
-        <v>172171.65906281254</v>
+        <f t="shared" ref="W3" si="1">+V3*1.2</f>
+        <v>194257.43999999997</v>
       </c>
       <c r="X3" s="4">
-        <f t="shared" si="1"/>
-        <v>180780.24201595318</v>
+        <f t="shared" ref="W3:X3" si="2">+W3*1.15</f>
+        <v>223396.05599999995</v>
       </c>
       <c r="Y3" s="4">
-        <f t="shared" si="1"/>
-        <v>189819.25411675085</v>
+        <f t="shared" ref="W3:AA3" si="3">+X3*1.1</f>
+        <v>245735.66159999996</v>
       </c>
       <c r="Z3" s="4">
-        <f t="shared" si="1"/>
-        <v>199310.21682258841</v>
+        <f t="shared" si="3"/>
+        <v>270309.22775999998</v>
       </c>
       <c r="AA3" s="4">
-        <f t="shared" si="1"/>
-        <v>209275.72766371784</v>
-      </c>
-      <c r="AB3" s="4">
-        <f t="shared" si="1"/>
-        <v>219739.51404690376</v>
-      </c>
-      <c r="AC3" s="4">
-        <f t="shared" si="1"/>
-        <v>230726.48974924895</v>
-      </c>
-      <c r="AD3" s="4">
-        <f t="shared" si="1"/>
-        <v>242262.81423671142</v>
-      </c>
-      <c r="AE3" s="4">
-        <f t="shared" si="1"/>
-        <v>254375.95494854701</v>
-      </c>
-      <c r="AF3" s="4">
-        <f t="shared" si="1"/>
-        <v>267094.75269597437</v>
-      </c>
-      <c r="AG3" s="4">
-        <f t="shared" si="1"/>
-        <v>280449.49033077311</v>
-      </c>
-      <c r="AH3" s="4">
-        <f t="shared" si="1"/>
-        <v>294471.96484731178</v>
-      </c>
-      <c r="AI3" s="4">
-        <f t="shared" si="1"/>
-        <v>309195.56308967737</v>
-      </c>
-      <c r="AJ3" s="4">
-        <f t="shared" si="1"/>
-        <v>324655.34124416125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:57" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>297340.15053600003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:60" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1142,219 +1064,99 @@
       <c r="K4" s="3">
         <v>7308</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="T4" s="3">
         <f>SUM(B4:E4)</f>
         <v>25249</v>
       </c>
-      <c r="R4" s="3">
+      <c r="U4" s="3">
         <f>SUM(F4:I4)</f>
         <v>25958</v>
       </c>
-      <c r="S4" s="3">
-        <f>+R4*1.05</f>
-        <v>27255.9</v>
-      </c>
-      <c r="T4" s="3">
-        <f t="shared" ref="T4:AJ4" si="2">+S4*1.05</f>
-        <v>28618.695000000003</v>
-      </c>
-      <c r="U4" s="3">
-        <f t="shared" si="2"/>
-        <v>30049.629750000004</v>
-      </c>
-      <c r="V4" s="3">
-        <f t="shared" si="2"/>
-        <v>31552.111237500005</v>
-      </c>
-      <c r="W4" s="3">
-        <f t="shared" si="2"/>
-        <v>33129.716799375004</v>
-      </c>
-      <c r="X4" s="3">
-        <f t="shared" si="2"/>
-        <v>34786.202639343755</v>
-      </c>
-      <c r="Y4" s="3">
-        <f t="shared" si="2"/>
-        <v>36525.512771310947</v>
-      </c>
-      <c r="Z4" s="3">
-        <f t="shared" si="2"/>
-        <v>38351.788409876499</v>
-      </c>
-      <c r="AA4" s="3">
-        <f t="shared" si="2"/>
-        <v>40269.377830370322</v>
-      </c>
-      <c r="AB4" s="3">
-        <f t="shared" si="2"/>
-        <v>42282.84672188884</v>
-      </c>
-      <c r="AC4" s="3">
-        <f t="shared" si="2"/>
-        <v>44396.989057983286</v>
-      </c>
-      <c r="AD4" s="3">
-        <f t="shared" si="2"/>
-        <v>46616.838510882451</v>
-      </c>
-      <c r="AE4" s="3">
-        <f t="shared" si="2"/>
-        <v>48947.680436426577</v>
-      </c>
-      <c r="AF4" s="3">
-        <f t="shared" si="2"/>
-        <v>51395.064458247907</v>
-      </c>
-      <c r="AG4" s="3">
-        <f t="shared" si="2"/>
-        <v>53964.817681160304</v>
-      </c>
-      <c r="AH4" s="3">
-        <f t="shared" si="2"/>
-        <v>56663.058565218322</v>
-      </c>
-      <c r="AI4" s="3">
-        <f t="shared" si="2"/>
-        <v>59496.211493479241</v>
-      </c>
-      <c r="AJ4" s="3">
-        <f t="shared" si="2"/>
-        <v>62471.022068153208</v>
-      </c>
-    </row>
-    <row r="5" spans="1:57" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:60" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="4">
-        <f t="shared" ref="B5:K5" si="3">+B3-B4</f>
+        <f t="shared" ref="B5:K5" si="4">+B3-B4</f>
         <v>21903</v>
       </c>
       <c r="C5" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23630</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21998</v>
       </c>
       <c r="E5" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23829</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22537</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26054</v>
       </c>
       <c r="H5" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27936</v>
       </c>
       <c r="I5" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32416</v>
       </c>
       <c r="J5" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>29815</v>
       </c>
       <c r="K5" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31763</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="R5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="4">
-        <f>+Q3-Q4</f>
+      <c r="T5" s="4">
+        <f>+T3-T4</f>
         <v>91360</v>
       </c>
-      <c r="R5" s="4">
-        <f>+R3-R4</f>
+      <c r="U5" s="4">
+        <f>+U3-U4</f>
         <v>108943</v>
       </c>
-      <c r="S5" s="4">
-        <f t="shared" ref="S5:AJ5" si="4">+S3-S4</f>
-        <v>114390.15000000002</v>
-      </c>
-      <c r="T5" s="4">
-        <f t="shared" si="4"/>
-        <v>120109.65750000003</v>
-      </c>
-      <c r="U5" s="4">
-        <f t="shared" si="4"/>
-        <v>126115.14037500003</v>
-      </c>
       <c r="V5" s="4">
-        <f t="shared" si="4"/>
-        <v>132420.89739375003</v>
+        <f>+V3*0.8</f>
+        <v>129504.95999999999</v>
       </c>
       <c r="W5" s="4">
-        <f t="shared" si="4"/>
-        <v>139041.94226343755</v>
+        <f t="shared" ref="W5:AA5" si="5">+W3*0.8</f>
+        <v>155405.95199999999</v>
       </c>
       <c r="X5" s="4">
-        <f t="shared" si="4"/>
-        <v>145994.03937660943</v>
+        <f t="shared" si="5"/>
+        <v>178716.84479999996</v>
       </c>
       <c r="Y5" s="4">
-        <f t="shared" si="4"/>
-        <v>153293.74134543989</v>
+        <f t="shared" si="5"/>
+        <v>196588.52927999999</v>
       </c>
       <c r="Z5" s="4">
-        <f t="shared" si="4"/>
-        <v>160958.42841271192</v>
+        <f t="shared" si="5"/>
+        <v>216247.382208</v>
       </c>
       <c r="AA5" s="4">
-        <f t="shared" si="4"/>
-        <v>169006.34983334751</v>
-      </c>
-      <c r="AB5" s="4">
-        <f t="shared" si="4"/>
-        <v>177456.66732501492</v>
-      </c>
-      <c r="AC5" s="4">
-        <f t="shared" si="4"/>
-        <v>186329.50069126568</v>
-      </c>
-      <c r="AD5" s="4">
-        <f t="shared" si="4"/>
-        <v>195645.97572582896</v>
-      </c>
-      <c r="AE5" s="4">
-        <f t="shared" si="4"/>
-        <v>205428.27451212044</v>
-      </c>
-      <c r="AF5" s="4">
-        <f t="shared" si="4"/>
-        <v>215699.68823772646</v>
-      </c>
-      <c r="AG5" s="4">
-        <f t="shared" si="4"/>
-        <v>226484.67264961282</v>
-      </c>
-      <c r="AH5" s="4">
-        <f t="shared" si="4"/>
-        <v>237808.90628209346</v>
-      </c>
-      <c r="AI5" s="4">
-        <f t="shared" si="4"/>
-        <v>249699.35159619813</v>
-      </c>
-      <c r="AJ5" s="4">
-        <f t="shared" si="4"/>
-        <v>262184.31917600805</v>
-      </c>
-    </row>
-    <row r="6" spans="1:57" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>237872.12042880003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:60" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1388,91 +1190,43 @@
       <c r="K6" s="3">
         <v>10537</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="T6" s="3">
         <f>SUM(B6:E6)</f>
         <v>35338</v>
       </c>
-      <c r="R6" s="3">
+      <c r="U6" s="3">
         <f>SUM(F6:I6)</f>
         <v>38483</v>
       </c>
-      <c r="S6" s="3">
-        <f>+R6*1.03</f>
-        <v>39637.49</v>
-      </c>
-      <c r="T6" s="3">
-        <f t="shared" ref="T6:AJ6" si="5">+S6*1.03</f>
-        <v>40826.614699999998</v>
-      </c>
-      <c r="U6" s="3">
-        <f t="shared" si="5"/>
-        <v>42051.413140999997</v>
-      </c>
       <c r="V6" s="3">
-        <f t="shared" si="5"/>
-        <v>43312.955535230001</v>
+        <f>+U6*1.05</f>
+        <v>40407.15</v>
       </c>
       <c r="W6" s="3">
-        <f t="shared" si="5"/>
-        <v>44612.344201286905</v>
+        <f t="shared" ref="W6:AA6" si="6">+V6*1.05</f>
+        <v>42427.5075</v>
       </c>
       <c r="X6" s="3">
-        <f t="shared" si="5"/>
-        <v>45950.714527325516</v>
+        <f t="shared" si="6"/>
+        <v>44548.882875000003</v>
       </c>
       <c r="Y6" s="3">
-        <f t="shared" si="5"/>
-        <v>47329.235963145285</v>
+        <f t="shared" si="6"/>
+        <v>46776.327018750002</v>
       </c>
       <c r="Z6" s="3">
-        <f t="shared" si="5"/>
-        <v>48749.113042039644</v>
+        <f t="shared" si="6"/>
+        <v>49115.143369687503</v>
       </c>
       <c r="AA6" s="3">
-        <f t="shared" si="5"/>
-        <v>50211.586433300836</v>
-      </c>
-      <c r="AB6" s="3">
-        <f t="shared" si="5"/>
-        <v>51717.934026299859</v>
-      </c>
-      <c r="AC6" s="3">
-        <f t="shared" si="5"/>
-        <v>53269.472047088857</v>
-      </c>
-      <c r="AD6" s="3">
-        <f t="shared" si="5"/>
-        <v>54867.556208501526</v>
-      </c>
-      <c r="AE6" s="3">
-        <f t="shared" si="5"/>
-        <v>56513.582894756575</v>
-      </c>
-      <c r="AF6" s="3">
-        <f t="shared" si="5"/>
-        <v>58208.990381599273</v>
-      </c>
-      <c r="AG6" s="3">
-        <f t="shared" si="5"/>
-        <v>59955.260093047254</v>
-      </c>
-      <c r="AH6" s="3">
-        <f t="shared" si="5"/>
-        <v>61753.917895838676</v>
-      </c>
-      <c r="AI6" s="3">
-        <f t="shared" si="5"/>
-        <v>63606.535432713841</v>
-      </c>
-      <c r="AJ6" s="3">
-        <f t="shared" si="5"/>
-        <v>65514.731495695261</v>
-      </c>
-    </row>
-    <row r="7" spans="1:57" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>51570.900538171882</v>
+      </c>
+    </row>
+    <row r="7" spans="1:60" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1506,88 +1260,40 @@
       <c r="K7" s="3">
         <v>2721</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="T7" s="3">
         <f>SUM(B7:E7)</f>
         <v>15261</v>
       </c>
-      <c r="R7" s="3">
+      <c r="U7" s="3">
         <f>SUM(F7:I7)</f>
         <v>12301</v>
       </c>
-      <c r="S7" s="3">
-        <f t="shared" ref="S7:AJ7" si="6">+R7*1.03</f>
+      <c r="V7" s="3">
+        <f t="shared" ref="V7:AM7" si="7">+U7*1.03</f>
         <v>12670.03</v>
       </c>
-      <c r="T7" s="3">
-        <f t="shared" si="6"/>
+      <c r="W7" s="3">
+        <f t="shared" si="7"/>
         <v>13050.1309</v>
       </c>
-      <c r="U7" s="3">
-        <f t="shared" si="6"/>
+      <c r="X7" s="3">
+        <f t="shared" si="7"/>
         <v>13441.634827</v>
       </c>
-      <c r="V7" s="3">
-        <f t="shared" si="6"/>
+      <c r="Y7" s="3">
+        <f t="shared" si="7"/>
         <v>13844.88387181</v>
       </c>
-      <c r="W7" s="3">
-        <f t="shared" si="6"/>
+      <c r="Z7" s="3">
+        <f t="shared" si="7"/>
         <v>14260.2303879643</v>
       </c>
-      <c r="X7" s="3">
-        <f t="shared" si="6"/>
+      <c r="AA7" s="3">
+        <f t="shared" si="7"/>
         <v>14688.037299603229</v>
       </c>
-      <c r="Y7" s="3">
-        <f t="shared" si="6"/>
-        <v>15128.678418591326</v>
-      </c>
-      <c r="Z7" s="3">
-        <f t="shared" si="6"/>
-        <v>15582.538771149066</v>
-      </c>
-      <c r="AA7" s="3">
-        <f t="shared" si="6"/>
-        <v>16050.014934283538</v>
-      </c>
-      <c r="AB7" s="3">
-        <f t="shared" si="6"/>
-        <v>16531.515382312045</v>
-      </c>
-      <c r="AC7" s="3">
-        <f t="shared" si="6"/>
-        <v>17027.460843781406</v>
-      </c>
-      <c r="AD7" s="3">
-        <f t="shared" si="6"/>
-        <v>17538.28466909485</v>
-      </c>
-      <c r="AE7" s="3">
-        <f t="shared" si="6"/>
-        <v>18064.433209167695</v>
-      </c>
-      <c r="AF7" s="3">
-        <f t="shared" si="6"/>
-        <v>18606.366205442726</v>
-      </c>
-      <c r="AG7" s="3">
-        <f t="shared" si="6"/>
-        <v>19164.557191606007</v>
-      </c>
-      <c r="AH7" s="3">
-        <f t="shared" si="6"/>
-        <v>19739.493907354186</v>
-      </c>
-      <c r="AI7" s="3">
-        <f t="shared" si="6"/>
-        <v>20331.678724574813</v>
-      </c>
-      <c r="AJ7" s="3">
-        <f t="shared" si="6"/>
-        <v>20941.629086312059</v>
-      </c>
-    </row>
-    <row r="8" spans="1:57" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:60" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1621,338 +1327,194 @@
       <c r="K8" s="3">
         <v>3658</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="T8" s="3">
         <f>SUM(B8:E8)</f>
         <v>11816</v>
       </c>
-      <c r="R8" s="3">
+      <c r="U8" s="3">
         <f>SUM(F8:I8)</f>
         <v>11408</v>
       </c>
-      <c r="S8" s="3">
-        <f t="shared" ref="S8:AJ8" si="7">+R8*1.03</f>
-        <v>11750.24</v>
-      </c>
-      <c r="T8" s="3">
-        <f t="shared" si="7"/>
-        <v>12102.7472</v>
-      </c>
-      <c r="U8" s="3">
-        <f t="shared" si="7"/>
-        <v>12465.829616000001</v>
-      </c>
       <c r="V8" s="3">
-        <f t="shared" si="7"/>
-        <v>12839.804504480002</v>
+        <f>+U8</f>
+        <v>11408</v>
       </c>
       <c r="W8" s="3">
-        <f t="shared" si="7"/>
-        <v>13224.998639614403</v>
+        <f t="shared" ref="W8:AA8" si="8">+V8</f>
+        <v>11408</v>
       </c>
       <c r="X8" s="3">
-        <f t="shared" si="7"/>
-        <v>13621.748598802835</v>
+        <f t="shared" si="8"/>
+        <v>11408</v>
       </c>
       <c r="Y8" s="3">
-        <f t="shared" si="7"/>
-        <v>14030.401056766919</v>
+        <f t="shared" si="8"/>
+        <v>11408</v>
       </c>
       <c r="Z8" s="3">
-        <f t="shared" si="7"/>
-        <v>14451.313088469928</v>
+        <f t="shared" si="8"/>
+        <v>11408</v>
       </c>
       <c r="AA8" s="3">
-        <f t="shared" si="7"/>
-        <v>14884.852481124026</v>
-      </c>
-      <c r="AB8" s="3">
-        <f t="shared" si="7"/>
-        <v>15331.398055557747</v>
-      </c>
-      <c r="AC8" s="3">
-        <f t="shared" si="7"/>
-        <v>15791.339997224481</v>
-      </c>
-      <c r="AD8" s="3">
-        <f t="shared" si="7"/>
-        <v>16265.080197141215</v>
-      </c>
-      <c r="AE8" s="3">
-        <f t="shared" si="7"/>
-        <v>16753.032603055453</v>
-      </c>
-      <c r="AF8" s="3">
-        <f t="shared" si="7"/>
-        <v>17255.623581147116</v>
-      </c>
-      <c r="AG8" s="3">
-        <f t="shared" si="7"/>
-        <v>17773.292288581531</v>
-      </c>
-      <c r="AH8" s="3">
-        <f t="shared" si="7"/>
-        <v>18306.491057238978</v>
-      </c>
-      <c r="AI8" s="3">
-        <f t="shared" si="7"/>
-        <v>18855.685788956147</v>
-      </c>
-      <c r="AJ8" s="3">
-        <f t="shared" si="7"/>
-        <v>19421.356362624832</v>
-      </c>
-    </row>
-    <row r="9" spans="1:57" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>11408</v>
+      </c>
+    </row>
+    <row r="9" spans="1:60" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="3">
-        <f t="shared" ref="B9:K9" si="8">+B6+B7+B8</f>
+        <f t="shared" ref="B9:K9" si="9">+B6+B7+B8</f>
         <v>13379</v>
       </c>
       <c r="C9" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>15272</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>16334</v>
       </c>
       <c r="E9" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>17430</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>15310</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>16662</v>
       </c>
       <c r="H9" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>14188</v>
       </c>
       <c r="I9" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>16032</v>
       </c>
       <c r="J9" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>15997</v>
       </c>
       <c r="K9" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>16916</v>
       </c>
-      <c r="Q9" s="3">
-        <f t="shared" ref="Q9:AJ9" si="9">+Q6+Q7+Q8</f>
+      <c r="T9" s="3">
+        <f t="shared" ref="T9:AM9" si="10">+T6+T7+T8</f>
         <v>62415</v>
       </c>
-      <c r="R9" s="3">
-        <f t="shared" si="9"/>
+      <c r="U9" s="3">
+        <f t="shared" si="10"/>
         <v>62192</v>
       </c>
-      <c r="S9" s="3">
-        <f t="shared" si="9"/>
-        <v>64057.759999999995</v>
-      </c>
-      <c r="T9" s="3">
-        <f t="shared" si="9"/>
-        <v>65979.492799999993</v>
-      </c>
-      <c r="U9" s="3">
-        <f t="shared" si="9"/>
-        <v>67958.877584000002</v>
-      </c>
       <c r="V9" s="3">
-        <f t="shared" si="9"/>
-        <v>69997.643911520005</v>
+        <f t="shared" si="10"/>
+        <v>64485.18</v>
       </c>
       <c r="W9" s="3">
-        <f t="shared" si="9"/>
-        <v>72097.573228865615</v>
+        <f t="shared" si="10"/>
+        <v>66885.638399999996</v>
       </c>
       <c r="X9" s="3">
-        <f t="shared" si="9"/>
-        <v>74260.500425731589</v>
+        <f t="shared" si="10"/>
+        <v>69398.517702000012</v>
       </c>
       <c r="Y9" s="3">
-        <f t="shared" si="9"/>
-        <v>76488.31543850353</v>
+        <f t="shared" si="10"/>
+        <v>72029.210890560003</v>
       </c>
       <c r="Z9" s="3">
-        <f t="shared" si="9"/>
-        <v>78782.964901658648</v>
+        <f t="shared" si="10"/>
+        <v>74783.373757651803</v>
       </c>
       <c r="AA9" s="3">
-        <f t="shared" si="9"/>
-        <v>81146.453848708392</v>
-      </c>
-      <c r="AB9" s="3">
-        <f t="shared" si="9"/>
-        <v>83580.847464169652</v>
-      </c>
-      <c r="AC9" s="3">
-        <f t="shared" si="9"/>
-        <v>86088.27288809474</v>
-      </c>
-      <c r="AD9" s="3">
-        <f t="shared" si="9"/>
-        <v>88670.921074737591</v>
-      </c>
-      <c r="AE9" s="3">
-        <f t="shared" si="9"/>
-        <v>91331.048706979724</v>
-      </c>
-      <c r="AF9" s="3">
-        <f t="shared" si="9"/>
-        <v>94070.980168189111</v>
-      </c>
-      <c r="AG9" s="3">
-        <f t="shared" si="9"/>
-        <v>96893.109573234789</v>
-      </c>
-      <c r="AH9" s="3">
-        <f t="shared" si="9"/>
-        <v>99799.902860431845</v>
-      </c>
-      <c r="AI9" s="3">
-        <f t="shared" si="9"/>
-        <v>102793.89994624481</v>
-      </c>
-      <c r="AJ9" s="3">
-        <f t="shared" si="9"/>
-        <v>105877.71694463216</v>
-      </c>
-    </row>
-    <row r="10" spans="1:57" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>77666.937837775113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:60" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="4">
-        <f t="shared" ref="B10:K10" si="10">+B5-B9</f>
+        <f t="shared" ref="B10:K10" si="11">+B5-B9</f>
         <v>8524</v>
       </c>
       <c r="C10" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8358</v>
       </c>
       <c r="D10" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5664</v>
       </c>
       <c r="E10" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6399</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7227</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9392</v>
       </c>
       <c r="H10" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>13748</v>
       </c>
       <c r="I10" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>16384</v>
       </c>
       <c r="J10" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>13818</v>
       </c>
       <c r="K10" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>14847</v>
       </c>
-      <c r="Q10" s="4">
-        <f t="shared" ref="Q10:AJ10" si="11">+Q5-Q9</f>
+      <c r="T10" s="4">
+        <f t="shared" ref="T10:AM10" si="12">+T5-T9</f>
         <v>28945</v>
       </c>
-      <c r="R10" s="4">
-        <f t="shared" si="11"/>
+      <c r="U10" s="4">
+        <f t="shared" si="12"/>
         <v>46751</v>
       </c>
-      <c r="S10" s="4">
-        <f t="shared" si="11"/>
-        <v>50332.390000000029</v>
-      </c>
-      <c r="T10" s="4">
-        <f t="shared" si="11"/>
-        <v>54130.164700000038</v>
-      </c>
-      <c r="U10" s="4">
-        <f t="shared" si="11"/>
-        <v>58156.26279100003</v>
-      </c>
       <c r="V10" s="4">
-        <f t="shared" si="11"/>
-        <v>62423.253482230022</v>
+        <f t="shared" si="12"/>
+        <v>65019.779999999992</v>
       </c>
       <c r="W10" s="4">
-        <f t="shared" si="11"/>
-        <v>66944.369034571937</v>
+        <f t="shared" si="12"/>
+        <v>88520.313599999994</v>
       </c>
       <c r="X10" s="4">
-        <f t="shared" si="11"/>
-        <v>71733.538950877846</v>
+        <f t="shared" si="12"/>
+        <v>109318.32709799995</v>
       </c>
       <c r="Y10" s="4">
-        <f t="shared" si="11"/>
-        <v>76805.425906936362</v>
+        <f t="shared" si="12"/>
+        <v>124559.31838943998</v>
       </c>
       <c r="Z10" s="4">
-        <f t="shared" si="11"/>
-        <v>82175.463511053269</v>
+        <f t="shared" si="12"/>
+        <v>141464.00845034819</v>
       </c>
       <c r="AA10" s="4">
-        <f t="shared" si="11"/>
-        <v>87859.895984639123</v>
-      </c>
-      <c r="AB10" s="4">
-        <f t="shared" si="11"/>
-        <v>93875.819860845266</v>
-      </c>
-      <c r="AC10" s="4">
-        <f t="shared" si="11"/>
-        <v>100241.22780317094</v>
-      </c>
-      <c r="AD10" s="4">
-        <f t="shared" si="11"/>
-        <v>106975.05465109137</v>
-      </c>
-      <c r="AE10" s="4">
-        <f t="shared" si="11"/>
-        <v>114097.22580514071</v>
-      </c>
-      <c r="AF10" s="4">
-        <f t="shared" si="11"/>
-        <v>121628.70806953734</v>
-      </c>
-      <c r="AG10" s="4">
-        <f t="shared" si="11"/>
-        <v>129591.56307637804</v>
-      </c>
-      <c r="AH10" s="4">
-        <f t="shared" si="11"/>
-        <v>138009.00342166162</v>
-      </c>
-      <c r="AI10" s="4">
-        <f t="shared" si="11"/>
-        <v>146905.45164995332</v>
-      </c>
-      <c r="AJ10" s="4">
-        <f t="shared" si="11"/>
-        <v>156306.60223137587</v>
-      </c>
-    </row>
-    <row r="11" spans="1:57" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>160205.1825910249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:60" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1986,220 +1548,125 @@
       <c r="K11" s="7">
         <v>259</v>
       </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="3" t="s">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="T11" s="7">
         <f>SUM(B11:E11)</f>
         <v>-126</v>
       </c>
-      <c r="R11" s="7">
-        <f>+(R33*$N$15)</f>
+      <c r="U11" s="7">
+        <f>+(U33*$Q$15)</f>
         <v>931.40000000000009</v>
       </c>
-      <c r="S11" s="7">
-        <f>+R33*$N$15</f>
+      <c r="V11" s="7">
+        <f>+U33*$Q$15</f>
         <v>931.40000000000009</v>
       </c>
-      <c r="T11" s="7">
-        <f t="shared" ref="T11:AJ11" si="12">+S33*$N$15</f>
-        <v>3033.2153900000012</v>
-      </c>
-      <c r="U11" s="7">
-        <f t="shared" si="12"/>
-        <v>5376.9139736900033</v>
-      </c>
-      <c r="V11" s="7">
-        <f t="shared" si="12"/>
-        <v>7981.7742210422939</v>
-      </c>
       <c r="W11" s="7">
-        <f t="shared" si="12"/>
-        <v>10868.38035687646</v>
+        <f t="shared" ref="W11:AM11" si="13">+V33*$Q$15</f>
+        <v>3569.4471999999996</v>
       </c>
       <c r="X11" s="7">
-        <f t="shared" si="12"/>
-        <v>14058.703081925843</v>
+        <f t="shared" si="13"/>
+        <v>7253.0376319999987</v>
       </c>
       <c r="Y11" s="7">
-        <f t="shared" si="12"/>
-        <v>17576.185005270796</v>
+        <f t="shared" si="13"/>
+        <v>11915.892221199996</v>
       </c>
       <c r="Z11" s="7">
-        <f t="shared" si="12"/>
-        <v>21445.831052671288</v>
+        <f t="shared" si="13"/>
+        <v>17374.900645625596</v>
       </c>
       <c r="AA11" s="7">
-        <f t="shared" si="12"/>
-        <v>25694.304129783995</v>
-      </c>
-      <c r="AB11" s="7">
-        <f t="shared" si="12"/>
-        <v>30350.026334475344</v>
-      </c>
-      <c r="AC11" s="7">
-        <f t="shared" si="12"/>
-        <v>35443.28602848349</v>
-      </c>
-      <c r="AD11" s="7">
-        <f t="shared" si="12"/>
-        <v>41006.351095581325</v>
-      </c>
-      <c r="AE11" s="7">
-        <f t="shared" si="12"/>
-        <v>47073.588731194905</v>
-      </c>
-      <c r="AF11" s="7">
-        <f t="shared" si="12"/>
-        <v>53681.592127184667</v>
-      </c>
-      <c r="AG11" s="7">
-        <f t="shared" si="12"/>
-        <v>60869.314435250271</v>
-      </c>
-      <c r="AH11" s="7">
-        <f t="shared" si="12"/>
-        <v>68678.210413227018</v>
-      </c>
-      <c r="AI11" s="7">
-        <f t="shared" si="12"/>
-        <v>77152.386180457455</v>
-      </c>
-      <c r="AJ11" s="7">
-        <f t="shared" si="12"/>
-        <v>86338.757531504292</v>
-      </c>
-    </row>
-    <row r="12" spans="1:57" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>23728.457009464546</v>
+      </c>
+    </row>
+    <row r="12" spans="1:60" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="3">
-        <f t="shared" ref="B12:K12" si="13">+B10+B11</f>
+        <f t="shared" ref="B12:K12" si="14">+B10+B11</f>
         <v>8908</v>
       </c>
       <c r="C12" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8186</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5576</v>
       </c>
       <c r="E12" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6149</v>
       </c>
       <c r="F12" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7307</v>
       </c>
       <c r="G12" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9293</v>
       </c>
       <c r="H12" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>14020</v>
       </c>
       <c r="I12" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>16808</v>
       </c>
       <c r="J12" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>14183</v>
       </c>
       <c r="K12" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>15106</v>
       </c>
-      <c r="Q12" s="3">
-        <f t="shared" ref="Q12:AJ12" si="14">+Q10+Q11</f>
+      <c r="T12" s="3">
+        <f t="shared" ref="T12:AM12" si="15">+T10+T11</f>
         <v>28819</v>
       </c>
-      <c r="R12" s="3">
-        <f>+R10+R11</f>
+      <c r="U12" s="3">
+        <f>+U10+U11</f>
         <v>47682.400000000001</v>
       </c>
-      <c r="S12" s="3">
-        <f>+S10+S11</f>
-        <v>51263.79000000003</v>
-      </c>
-      <c r="T12" s="3">
-        <f t="shared" si="14"/>
-        <v>57163.380090000035</v>
-      </c>
-      <c r="U12" s="3">
-        <f t="shared" si="14"/>
-        <v>63533.176764690033</v>
-      </c>
       <c r="V12" s="3">
-        <f t="shared" si="14"/>
-        <v>70405.02770327231</v>
+        <f>+V10+V11</f>
+        <v>65951.179999999993</v>
       </c>
       <c r="W12" s="3">
-        <f t="shared" si="14"/>
-        <v>77812.749391448393</v>
+        <f t="shared" si="15"/>
+        <v>92089.760799999989</v>
       </c>
       <c r="X12" s="3">
-        <f t="shared" si="14"/>
-        <v>85792.242032803682</v>
+        <f t="shared" si="15"/>
+        <v>116571.36472999994</v>
       </c>
       <c r="Y12" s="3">
-        <f t="shared" si="14"/>
-        <v>94381.610912207165</v>
+        <f t="shared" si="15"/>
+        <v>136475.21061063997</v>
       </c>
       <c r="Z12" s="3">
-        <f t="shared" si="14"/>
-        <v>103621.29456372456</v>
+        <f t="shared" si="15"/>
+        <v>158838.9090959738</v>
       </c>
       <c r="AA12" s="3">
-        <f t="shared" si="14"/>
-        <v>113554.20011442312</v>
-      </c>
-      <c r="AB12" s="3">
-        <f t="shared" si="14"/>
-        <v>124225.84619532061</v>
-      </c>
-      <c r="AC12" s="3">
-        <f t="shared" si="14"/>
-        <v>135684.51383165445</v>
-      </c>
-      <c r="AD12" s="3">
-        <f t="shared" si="14"/>
-        <v>147981.40574667271</v>
-      </c>
-      <c r="AE12" s="3">
-        <f t="shared" si="14"/>
-        <v>161170.81453633562</v>
-      </c>
-      <c r="AF12" s="3">
-        <f t="shared" si="14"/>
-        <v>175310.300196722</v>
-      </c>
-      <c r="AG12" s="3">
-        <f t="shared" si="14"/>
-        <v>190460.87751162832</v>
-      </c>
-      <c r="AH12" s="3">
-        <f t="shared" si="14"/>
-        <v>206687.21383488865</v>
-      </c>
-      <c r="AI12" s="3">
-        <f t="shared" si="14"/>
-        <v>224057.83783041078</v>
-      </c>
-      <c r="AJ12" s="3">
-        <f t="shared" si="14"/>
-        <v>242645.35976288017</v>
-      </c>
-    </row>
-    <row r="13" spans="1:57" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="15"/>
+        <v>183933.63960048946</v>
+      </c>
+    </row>
+    <row r="13" spans="1:60" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -2233,431 +1700,349 @@
       <c r="K13" s="3">
         <v>1641</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="T13" s="3">
         <f>SUM(B13:E13)</f>
         <v>5620</v>
       </c>
-      <c r="R13" s="3">
+      <c r="U13" s="3">
         <f>SUM(F13:I13)</f>
         <v>8331</v>
       </c>
-      <c r="S13" s="3">
-        <f>+S12*0.18</f>
-        <v>9227.4822000000058</v>
-      </c>
-      <c r="T13" s="3">
-        <f t="shared" ref="T13:AJ13" si="15">+T12*0.18</f>
-        <v>10289.408416200005</v>
-      </c>
-      <c r="U13" s="3">
-        <f t="shared" si="15"/>
-        <v>11435.971817644206</v>
-      </c>
       <c r="V13" s="3">
-        <f t="shared" si="15"/>
-        <v>12672.904986589016</v>
+        <f>+V12*0.2</f>
+        <v>13190.235999999999</v>
       </c>
       <c r="W13" s="3">
-        <f t="shared" si="15"/>
-        <v>14006.294890460711</v>
+        <f t="shared" ref="W13:AA13" si="16">+W12*0.2</f>
+        <v>18417.952159999997</v>
       </c>
       <c r="X13" s="3">
-        <f t="shared" si="15"/>
-        <v>15442.603565904663</v>
+        <f t="shared" si="16"/>
+        <v>23314.27294599999</v>
       </c>
       <c r="Y13" s="3">
-        <f t="shared" si="15"/>
-        <v>16988.689964197289</v>
+        <f t="shared" si="16"/>
+        <v>27295.042122127998</v>
       </c>
       <c r="Z13" s="3">
-        <f t="shared" si="15"/>
-        <v>18651.833021470418</v>
+        <f t="shared" si="16"/>
+        <v>31767.781819194759</v>
       </c>
       <c r="AA13" s="3">
-        <f t="shared" si="15"/>
-        <v>20439.75602059616</v>
-      </c>
-      <c r="AB13" s="3">
-        <f t="shared" si="15"/>
-        <v>22360.652315157709</v>
-      </c>
-      <c r="AC13" s="3">
-        <f t="shared" si="15"/>
-        <v>24423.212489697798</v>
-      </c>
-      <c r="AD13" s="3">
-        <f t="shared" si="15"/>
-        <v>26636.653034401086</v>
-      </c>
-      <c r="AE13" s="3">
-        <f t="shared" si="15"/>
-        <v>29010.746616540411</v>
-      </c>
-      <c r="AF13" s="3">
-        <f t="shared" si="15"/>
-        <v>31555.85403540996</v>
-      </c>
-      <c r="AG13" s="3">
-        <f t="shared" si="15"/>
-        <v>34282.9579520931</v>
-      </c>
-      <c r="AH13" s="3">
-        <f t="shared" si="15"/>
-        <v>37203.698490279952</v>
-      </c>
-      <c r="AI13" s="3">
-        <f t="shared" si="15"/>
-        <v>40330.410809473935</v>
-      </c>
-      <c r="AJ13" s="3">
-        <f t="shared" si="15"/>
-        <v>43676.164757318431</v>
-      </c>
-    </row>
-    <row r="14" spans="1:57" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="16"/>
+        <v>36786.727920097896</v>
+      </c>
+    </row>
+    <row r="14" spans="1:60" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="4">
-        <f t="shared" ref="B14:K14" si="16">+B12-B13</f>
+        <f t="shared" ref="B14:K14" si="17">+B12-B13</f>
         <v>7465</v>
       </c>
       <c r="C14" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>6687</v>
       </c>
       <c r="D14" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4395</v>
       </c>
       <c r="E14" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4652</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5709</v>
       </c>
       <c r="G14" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7788</v>
       </c>
       <c r="H14" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>11583</v>
       </c>
       <c r="I14" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>14017</v>
       </c>
       <c r="J14" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>12369</v>
       </c>
       <c r="K14" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>13465</v>
       </c>
-      <c r="P14" s="4" t="s">
+      <c r="S14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="4">
-        <f t="shared" ref="Q14:BE14" si="17">+Q12-Q13</f>
+      <c r="T14" s="4">
+        <f t="shared" ref="T14:AM14" si="18">+T12-T13</f>
         <v>23199</v>
       </c>
-      <c r="R14" s="4">
-        <f t="shared" si="17"/>
+      <c r="U14" s="4">
+        <f t="shared" si="18"/>
         <v>39351.4</v>
       </c>
-      <c r="S14" s="4">
-        <f t="shared" si="17"/>
-        <v>42036.307800000024</v>
-      </c>
-      <c r="T14" s="4">
-        <f t="shared" si="17"/>
-        <v>46873.971673800028</v>
-      </c>
-      <c r="U14" s="4">
-        <f t="shared" si="17"/>
-        <v>52097.20494704583</v>
-      </c>
       <c r="V14" s="4">
-        <f t="shared" si="17"/>
-        <v>57732.122716683298</v>
+        <f t="shared" si="18"/>
+        <v>52760.943999999996</v>
       </c>
       <c r="W14" s="4">
-        <f t="shared" si="17"/>
-        <v>63806.454500987682</v>
+        <f t="shared" si="18"/>
+        <v>73671.808639999988</v>
       </c>
       <c r="X14" s="4">
-        <f t="shared" si="17"/>
-        <v>70349.638466899021</v>
+        <f t="shared" si="18"/>
+        <v>93257.09178399996</v>
       </c>
       <c r="Y14" s="4">
-        <f t="shared" si="17"/>
-        <v>77392.92094800988</v>
+        <f t="shared" si="18"/>
+        <v>109180.16848851198</v>
       </c>
       <c r="Z14" s="4">
-        <f t="shared" si="17"/>
-        <v>84969.461542254139</v>
+        <f t="shared" si="18"/>
+        <v>127071.12727677904</v>
       </c>
       <c r="AA14" s="4">
-        <f t="shared" si="17"/>
-        <v>93114.444093826954</v>
+        <f t="shared" si="18"/>
+        <v>147146.91168039158</v>
       </c>
       <c r="AB14" s="4">
-        <f t="shared" si="17"/>
-        <v>101865.1938801629</v>
+        <f>+AA14*0.99</f>
+        <v>145675.44256358765</v>
       </c>
       <c r="AC14" s="4">
-        <f t="shared" si="17"/>
-        <v>111261.30134195666</v>
+        <f t="shared" ref="AC14:BH14" si="19">+AB14*0.99</f>
+        <v>144218.68813795177</v>
       </c>
       <c r="AD14" s="4">
-        <f t="shared" si="17"/>
-        <v>121344.75271227163</v>
+        <f t="shared" si="19"/>
+        <v>142776.50125657226</v>
       </c>
       <c r="AE14" s="4">
-        <f t="shared" si="17"/>
-        <v>132160.0679197952</v>
+        <f t="shared" si="19"/>
+        <v>141348.73624400652</v>
       </c>
       <c r="AF14" s="4">
-        <f t="shared" si="17"/>
-        <v>143754.44616131205</v>
+        <f t="shared" si="19"/>
+        <v>139935.24888156645</v>
       </c>
       <c r="AG14" s="4">
-        <f t="shared" si="17"/>
-        <v>156177.91955953522</v>
+        <f t="shared" si="19"/>
+        <v>138535.89639275079</v>
       </c>
       <c r="AH14" s="4">
-        <f t="shared" si="17"/>
-        <v>169483.51534460869</v>
+        <f t="shared" si="19"/>
+        <v>137150.53742882327</v>
       </c>
       <c r="AI14" s="4">
-        <f t="shared" si="17"/>
-        <v>183727.42702093686</v>
+        <f t="shared" si="19"/>
+        <v>135779.03205453503</v>
       </c>
       <c r="AJ14" s="4">
-        <f t="shared" si="17"/>
-        <v>198969.19500556175</v>
+        <f t="shared" si="19"/>
+        <v>134421.24173398968</v>
       </c>
       <c r="AK14" s="4">
-        <f>+AJ14</f>
-        <v>198969.19500556175</v>
+        <f t="shared" si="19"/>
+        <v>133077.02931664977</v>
       </c>
       <c r="AL14" s="4">
-        <f t="shared" ref="AL14:BE14" si="18">+AK14</f>
-        <v>198969.19500556175</v>
+        <f t="shared" si="19"/>
+        <v>131746.25902348326</v>
       </c>
       <c r="AM14" s="4">
-        <f t="shared" si="18"/>
-        <v>198969.19500556175</v>
+        <f t="shared" si="19"/>
+        <v>130428.79643324843</v>
       </c>
       <c r="AN14" s="4">
-        <f t="shared" si="18"/>
-        <v>198969.19500556175</v>
+        <f t="shared" si="19"/>
+        <v>129124.50846891594</v>
       </c>
       <c r="AO14" s="4">
-        <f t="shared" si="18"/>
-        <v>198969.19500556175</v>
+        <f t="shared" si="19"/>
+        <v>127833.26338422678</v>
       </c>
       <c r="AP14" s="4">
-        <f t="shared" si="18"/>
-        <v>198969.19500556175</v>
+        <f t="shared" si="19"/>
+        <v>126554.93075038452</v>
       </c>
       <c r="AQ14" s="4">
-        <f t="shared" si="18"/>
-        <v>198969.19500556175</v>
+        <f t="shared" si="19"/>
+        <v>125289.38144288068</v>
       </c>
       <c r="AR14" s="4">
-        <f t="shared" si="18"/>
-        <v>198969.19500556175</v>
+        <f t="shared" si="19"/>
+        <v>124036.48762845187</v>
       </c>
       <c r="AS14" s="4">
-        <f t="shared" si="18"/>
-        <v>198969.19500556175</v>
+        <f t="shared" si="19"/>
+        <v>122796.12275216734</v>
       </c>
       <c r="AT14" s="4">
-        <f t="shared" si="18"/>
-        <v>198969.19500556175</v>
+        <f t="shared" si="19"/>
+        <v>121568.16152464566</v>
       </c>
       <c r="AU14" s="4">
-        <f t="shared" si="18"/>
-        <v>198969.19500556175</v>
+        <f t="shared" si="19"/>
+        <v>120352.4799093992</v>
       </c>
       <c r="AV14" s="4">
-        <f t="shared" si="18"/>
-        <v>198969.19500556175</v>
+        <f t="shared" si="19"/>
+        <v>119148.95511030521</v>
       </c>
       <c r="AW14" s="4">
-        <f t="shared" si="18"/>
-        <v>198969.19500556175</v>
+        <f t="shared" si="19"/>
+        <v>117957.46555920216</v>
       </c>
       <c r="AX14" s="4">
-        <f t="shared" si="18"/>
-        <v>198969.19500556175</v>
+        <f t="shared" si="19"/>
+        <v>116777.89090361014</v>
       </c>
       <c r="AY14" s="4">
-        <f t="shared" si="18"/>
-        <v>198969.19500556175</v>
+        <f t="shared" si="19"/>
+        <v>115610.11199457404</v>
       </c>
       <c r="AZ14" s="4">
-        <f t="shared" si="18"/>
-        <v>198969.19500556175</v>
+        <f t="shared" si="19"/>
+        <v>114454.01087462829</v>
       </c>
       <c r="BA14" s="4">
-        <f t="shared" si="18"/>
-        <v>198969.19500556175</v>
+        <f t="shared" si="19"/>
+        <v>113309.47076588201</v>
       </c>
       <c r="BB14" s="4">
-        <f t="shared" si="18"/>
-        <v>198969.19500556175</v>
+        <f t="shared" si="19"/>
+        <v>112176.37605822319</v>
       </c>
       <c r="BC14" s="4">
-        <f t="shared" si="18"/>
-        <v>198969.19500556175</v>
+        <f t="shared" si="19"/>
+        <v>111054.61229764095</v>
       </c>
       <c r="BD14" s="4">
-        <f t="shared" si="18"/>
-        <v>198969.19500556175</v>
+        <f t="shared" si="19"/>
+        <v>109944.06617466455</v>
       </c>
       <c r="BE14" s="4">
-        <f t="shared" si="18"/>
-        <v>198969.19500556175</v>
-      </c>
-    </row>
-    <row r="15" spans="1:57" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="19"/>
+        <v>108844.6255129179</v>
+      </c>
+      <c r="BF14" s="4">
+        <f t="shared" si="19"/>
+        <v>107756.17925778872</v>
+      </c>
+      <c r="BG14" s="4">
+        <f t="shared" si="19"/>
+        <v>106678.61746521083</v>
+      </c>
+      <c r="BH14" s="4">
+        <f t="shared" si="19"/>
+        <v>105611.83129055872</v>
+      </c>
+    </row>
+    <row r="15" spans="1:60" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="5">
-        <f t="shared" ref="B15:K15" si="19">+B14/B16</f>
+        <f t="shared" ref="B15:K15" si="20">+B14/B16</f>
         <v>2.7394495412844035</v>
       </c>
       <c r="C15" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.4730029585798818</v>
       </c>
       <c r="D15" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.638702460850112</v>
       </c>
       <c r="E15" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.7634571645185746</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.206803247004252</v>
       </c>
       <c r="G15" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.0327102803738319</v>
       </c>
       <c r="H15" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.4965062111801242</v>
       </c>
       <c r="I15" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5.4625876851130162</v>
       </c>
       <c r="J15" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.8601178781925345</v>
       </c>
       <c r="K15" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5.3137332280978686</v>
       </c>
-      <c r="M15" t="s">
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="P15" t="s">
         <v>34</v>
       </c>
-      <c r="N15" s="6">
+      <c r="Q15" s="6">
         <v>0.05</v>
       </c>
-      <c r="Q15" s="5">
-        <f t="shared" ref="Q15:AJ15" si="20">+Q14/Q16</f>
+      <c r="T15" s="5">
+        <f t="shared" ref="T15:AM15" si="21">+T14/T16</f>
         <v>8.6329891152665361</v>
       </c>
-      <c r="R15" s="5">
-        <f t="shared" si="20"/>
+      <c r="U15" s="5">
+        <f t="shared" si="21"/>
         <v>15.286549480431194</v>
       </c>
-      <c r="S15" s="5">
-        <f t="shared" si="20"/>
-        <v>16.32953590366127</v>
-      </c>
-      <c r="T15" s="5">
-        <f t="shared" si="20"/>
-        <v>18.208787675556</v>
-      </c>
-      <c r="U15" s="5">
-        <f t="shared" si="20"/>
-        <v>20.237818761598845</v>
-      </c>
       <c r="V15" s="5">
-        <f t="shared" si="20"/>
-        <v>22.426773901790153</v>
+        <f t="shared" si="21"/>
+        <v>20.495656599009418</v>
       </c>
       <c r="W15" s="5">
-        <f t="shared" si="20"/>
-        <v>24.786424978532654</v>
+        <f t="shared" si="21"/>
+        <v>28.618746679615416</v>
       </c>
       <c r="X15" s="5">
-        <f t="shared" si="20"/>
-        <v>27.328207620432757</v>
+        <f t="shared" si="21"/>
+        <v>36.226897847528392</v>
       </c>
       <c r="Y15" s="5">
-        <f t="shared" si="20"/>
-        <v>30.064259861322668</v>
+        <f t="shared" si="21"/>
+        <v>42.41241856405243</v>
       </c>
       <c r="Z15" s="5">
-        <f t="shared" si="20"/>
-        <v>33.007462966788047</v>
+        <f t="shared" si="21"/>
+        <v>49.362387987483359</v>
       </c>
       <c r="AA15" s="5">
-        <f t="shared" si="20"/>
-        <v>36.171484546499741</v>
-      </c>
-      <c r="AB15" s="5">
-        <f t="shared" si="20"/>
-        <v>39.570824076978887</v>
-      </c>
-      <c r="AC15" s="5">
-        <f t="shared" si="20"/>
-        <v>43.220860966089795</v>
-      </c>
-      <c r="AD15" s="5">
-        <f t="shared" si="20"/>
-        <v>47.137905297570796</v>
-      </c>
-      <c r="AE15" s="5">
-        <f t="shared" si="20"/>
-        <v>51.339251401299485</v>
-      </c>
-      <c r="AF15" s="5">
-        <f t="shared" si="20"/>
-        <v>55.843234402762768</v>
-      </c>
-      <c r="AG15" s="5">
-        <f t="shared" si="20"/>
-        <v>60.669289913386507</v>
-      </c>
-      <c r="AH15" s="5">
-        <f t="shared" si="20"/>
-        <v>65.838017031993274</v>
-      </c>
-      <c r="AI15" s="5">
-        <f t="shared" si="20"/>
-        <v>71.371244836724031</v>
-      </c>
-      <c r="AJ15" s="5">
-        <f t="shared" si="20"/>
-        <v>77.29210255630251</v>
-      </c>
-    </row>
-    <row r="16" spans="1:57" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="21"/>
+        <v>57.161080578961474</v>
+      </c>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5"/>
+      <c r="AM15" s="5"/>
+    </row>
+    <row r="16" spans="1:60" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2691,123 +2076,75 @@
       <c r="K16" s="3">
         <v>2534</v>
       </c>
-      <c r="M16" t="s">
+      <c r="P16" t="s">
         <v>35</v>
       </c>
-      <c r="N16" s="6">
-        <v>-0.05</v>
-      </c>
-      <c r="O16" s="6"/>
-      <c r="P16" s="3" t="s">
+      <c r="Q16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="R16" s="6"/>
+      <c r="S16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T16" s="3">
         <f>AVERAGE(B16:E16)</f>
         <v>2687.25</v>
       </c>
-      <c r="R16" s="3">
+      <c r="U16" s="3">
         <f>AVERAGE(F16:I16)</f>
         <v>2574.25</v>
       </c>
-      <c r="S16" s="3">
-        <f>+R16</f>
+      <c r="V16" s="3">
+        <f>+U16</f>
         <v>2574.25</v>
       </c>
-      <c r="T16" s="3">
-        <f t="shared" ref="T16:AJ16" si="21">+S16</f>
+      <c r="W16" s="3">
+        <f t="shared" ref="W16:AM16" si="22">+V16</f>
         <v>2574.25</v>
       </c>
-      <c r="U16" s="3">
-        <f t="shared" si="21"/>
+      <c r="X16" s="3">
+        <f t="shared" si="22"/>
         <v>2574.25</v>
       </c>
-      <c r="V16" s="3">
-        <f t="shared" si="21"/>
+      <c r="Y16" s="3">
+        <f t="shared" si="22"/>
         <v>2574.25</v>
       </c>
-      <c r="W16" s="3">
-        <f t="shared" si="21"/>
+      <c r="Z16" s="3">
+        <f t="shared" si="22"/>
         <v>2574.25</v>
       </c>
-      <c r="X16" s="3">
-        <f t="shared" si="21"/>
+      <c r="AA16" s="3">
+        <f t="shared" si="22"/>
         <v>2574.25</v>
       </c>
-      <c r="Y16" s="3">
-        <f t="shared" si="21"/>
-        <v>2574.25</v>
-      </c>
-      <c r="Z16" s="3">
-        <f t="shared" si="21"/>
-        <v>2574.25</v>
-      </c>
-      <c r="AA16" s="3">
-        <f t="shared" si="21"/>
-        <v>2574.25</v>
-      </c>
-      <c r="AB16" s="3">
-        <f t="shared" si="21"/>
-        <v>2574.25</v>
-      </c>
-      <c r="AC16" s="3">
-        <f t="shared" si="21"/>
-        <v>2574.25</v>
-      </c>
-      <c r="AD16" s="3">
-        <f t="shared" si="21"/>
-        <v>2574.25</v>
-      </c>
-      <c r="AE16" s="3">
-        <f t="shared" si="21"/>
-        <v>2574.25</v>
-      </c>
-      <c r="AF16" s="3">
-        <f t="shared" si="21"/>
-        <v>2574.25</v>
-      </c>
-      <c r="AG16" s="3">
-        <f t="shared" si="21"/>
-        <v>2574.25</v>
-      </c>
-      <c r="AH16" s="3">
-        <f t="shared" si="21"/>
-        <v>2574.25</v>
-      </c>
-      <c r="AI16" s="3">
-        <f t="shared" si="21"/>
-        <v>2574.25</v>
-      </c>
-      <c r="AJ16" s="3">
-        <f t="shared" si="21"/>
-        <v>2574.25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>10</v>
       </c>
-      <c r="M17" t="s">
+      <c r="P17" t="s">
         <v>36</v>
       </c>
-      <c r="N17" s="6">
+      <c r="Q17" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="O17" s="6"/>
-    </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="R17" s="6"/>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>33</v>
       </c>
       <c r="F18" s="6">
-        <f t="shared" ref="F18:H18" si="22">+F5/B5-1</f>
+        <f t="shared" ref="F18:H18" si="23">+F5/B5-1</f>
         <v>2.8945806510523697E-2</v>
       </c>
       <c r="G18" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.1025814642403724</v>
       </c>
       <c r="H18" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.26993363033002993</v>
       </c>
       <c r="I18" s="6">
@@ -2815,1238 +2152,932 @@
         <v>0.36035922615300686</v>
       </c>
       <c r="J18" s="6">
-        <f t="shared" ref="J18:K18" si="23">+J5/F5-1</f>
+        <f t="shared" ref="J18:K18" si="24">+J5/F5-1</f>
         <v>0.32293561698540185</v>
       </c>
       <c r="K18" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.21912182390419899</v>
       </c>
-      <c r="M18" t="s">
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="P18" t="s">
         <v>37</v>
       </c>
-      <c r="N18" s="8">
-        <f>NPV(N17,Q14:BE14)</f>
-        <v>1405943.1053827025</v>
-      </c>
-      <c r="O18" s="6"/>
-      <c r="Q18" t="s">
+      <c r="Q18" s="8">
+        <f>NPV(Q17,T14:BH14)</f>
+        <v>1437578.4343841327</v>
+      </c>
+      <c r="R18" s="6"/>
+      <c r="T18" t="s">
         <v>10</v>
       </c>
-      <c r="R18" s="6">
-        <f>+R3/Q3-1</f>
+      <c r="U18" s="6">
+        <f>+U3/T3-1</f>
         <v>0.15686610810486323</v>
       </c>
-      <c r="S18" s="6">
-        <f t="shared" ref="S18:AJ18" si="24">+S3/R3-1</f>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="T18" s="6">
-        <f t="shared" si="24"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="U18" s="6">
-        <f t="shared" si="24"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
       <c r="V18" s="6">
-        <f t="shared" si="24"/>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" ref="V18:AM18" si="25">+V3/U3-1</f>
+        <v>0.19999999999999996</v>
       </c>
       <c r="W18" s="6">
-        <f t="shared" si="24"/>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" si="25"/>
+        <v>0.19999999999999996</v>
       </c>
       <c r="X18" s="6">
-        <f t="shared" si="24"/>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" si="25"/>
+        <v>0.14999999999999991</v>
       </c>
       <c r="Y18" s="6">
-        <f t="shared" si="24"/>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" si="25"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="Z18" s="6">
-        <f t="shared" si="24"/>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" si="25"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="AA18" s="6">
-        <f t="shared" si="24"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="AB18" s="6">
-        <f t="shared" si="24"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="AC18" s="6">
-        <f t="shared" si="24"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="AD18" s="6">
-        <f t="shared" si="24"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="AE18" s="6">
-        <f t="shared" si="24"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="AF18" s="6">
-        <f t="shared" si="24"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="AG18" s="6">
-        <f t="shared" si="24"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="AH18" s="6">
-        <f t="shared" si="24"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="AI18" s="6">
-        <f t="shared" si="24"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="AJ18" s="6">
-        <f t="shared" si="24"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+        <f t="shared" si="25"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="6"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="6"/>
+      <c r="AK18" s="6"/>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="6"/>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>69</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" ref="F19:J19" si="25">+F14/B14-1</f>
+        <f t="shared" ref="F19:J19" si="26">+F14/B14-1</f>
         <v>-0.23523107836570667</v>
       </c>
       <c r="G19" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.16464782413638401</v>
       </c>
       <c r="H19" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.6354948805460752</v>
       </c>
       <c r="I19" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2.0131126397248496</v>
       </c>
       <c r="J19" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.16657908565423</v>
       </c>
       <c r="K19" s="6">
         <f>+K14/G14-1</f>
         <v>0.72894196199280947</v>
       </c>
-      <c r="M19" t="s">
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="P19" t="s">
         <v>48</v>
       </c>
-      <c r="N19" s="3">
+      <c r="Q19" s="3">
         <f>+main!L5-main!L6</f>
         <v>13656</v>
       </c>
-      <c r="O19" s="8"/>
-      <c r="Q19" t="s">
+      <c r="R19" s="8"/>
+      <c r="T19" t="s">
         <v>10</v>
       </c>
-      <c r="R19" s="6">
-        <f>+R14/Q14-1</f>
+      <c r="U19" s="6">
+        <f>+U14/T14-1</f>
         <v>0.6962541488857279</v>
       </c>
-      <c r="S19" s="6">
-        <f t="shared" ref="S19:AJ19" si="26">+S14/R14-1</f>
-        <v>6.8229028700377281E-2</v>
-      </c>
-      <c r="T19" s="6">
-        <f t="shared" si="26"/>
-        <v>0.11508298723133814</v>
-      </c>
-      <c r="U19" s="6">
-        <f t="shared" si="26"/>
-        <v>0.11143142103670511</v>
-      </c>
       <c r="V19" s="6">
-        <f t="shared" si="26"/>
-        <v>0.10816161395539514</v>
+        <f t="shared" ref="V19:AM19" si="27">+V14/U14-1</f>
+        <v>0.34076408971472416</v>
       </c>
       <c r="W19" s="6">
-        <f t="shared" si="26"/>
-        <v>0.10521580531715036</v>
+        <f t="shared" si="27"/>
+        <v>0.39633226880853378</v>
       </c>
       <c r="X19" s="6">
-        <f t="shared" si="26"/>
-        <v>0.10254736792827224</v>
+        <f t="shared" si="27"/>
+        <v>0.26584501596403287</v>
       </c>
       <c r="Y19" s="6">
-        <f t="shared" si="26"/>
-        <v>0.10011824701025107</v>
+        <f t="shared" si="27"/>
+        <v>0.17074386944633324</v>
       </c>
       <c r="Z19" s="6">
-        <f t="shared" si="26"/>
-        <v>9.789707509985246E-2</v>
+        <f t="shared" si="27"/>
+        <v>0.16386637826218009</v>
       </c>
       <c r="AA19" s="6">
-        <f t="shared" si="26"/>
-        <v>9.5857763527457784E-2</v>
-      </c>
-      <c r="AB19" s="6">
-        <f t="shared" si="26"/>
-        <v>9.3978435585334585E-2</v>
-      </c>
-      <c r="AC19" s="6">
-        <f t="shared" si="26"/>
-        <v>9.22406084343943E-2</v>
-      </c>
-      <c r="AD19" s="6">
-        <f t="shared" si="26"/>
-        <v>9.0628558615577726E-2</v>
-      </c>
-      <c r="AE19" s="6">
-        <f t="shared" si="26"/>
-        <v>8.912882482169171E-2</v>
-      </c>
-      <c r="AF19" s="6">
-        <f t="shared" si="26"/>
-        <v>8.7729814489450719E-2</v>
-      </c>
-      <c r="AG19" s="6">
-        <f t="shared" si="26"/>
-        <v>8.6421489769313631E-2</v>
-      </c>
-      <c r="AH19" s="6">
-        <f t="shared" si="26"/>
-        <v>8.5195114793428672E-2</v>
-      </c>
-      <c r="AI19" s="6">
-        <f t="shared" si="26"/>
-        <v>8.4043050720102208E-2</v>
-      </c>
-      <c r="AJ19" s="6">
-        <f t="shared" si="26"/>
-        <v>8.2958588337973094E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="M20" t="s">
+        <f t="shared" si="27"/>
+        <v>0.15798855990223992</v>
+      </c>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="6"/>
+      <c r="AG19" s="6"/>
+      <c r="AH19" s="6"/>
+      <c r="AI19" s="6"/>
+      <c r="AJ19" s="6"/>
+      <c r="AK19" s="6"/>
+      <c r="AL19" s="6"/>
+      <c r="AM19" s="6"/>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="P20" t="s">
         <v>38</v>
       </c>
-      <c r="N20" s="9">
-        <f>+N18-N19</f>
-        <v>1392287.1053827025</v>
-      </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="Q20" s="9">
+        <f>+Q18-Q19</f>
+        <v>1423922.4343841327</v>
+      </c>
+      <c r="R20" s="3"/>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="6">
-        <f t="shared" ref="B21:J21" si="27">+B5/B3</f>
+        <f t="shared" ref="B21:J21" si="28">+B5/B3</f>
         <v>0.78482872294682526</v>
       </c>
       <c r="C21" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.81985982929706469</v>
       </c>
       <c r="D21" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.79375045103557773</v>
       </c>
       <c r="E21" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.74083631276231932</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.7867690696456624</v>
       </c>
       <c r="G21" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.81421294415450485</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.81813389562467054</v>
       </c>
       <c r="I21" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.80815736331679588</v>
       </c>
       <c r="J21" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.81785763269784661</v>
       </c>
       <c r="K21" s="6">
         <f>+K5/K3</f>
         <v>0.81295590079598679</v>
       </c>
-      <c r="M21" t="s">
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="P21" t="s">
         <v>39</v>
       </c>
-      <c r="N21">
-        <f>+N20/main!L3</f>
-        <v>550.35097057193946</v>
-      </c>
-      <c r="O21" s="9"/>
-      <c r="Q21" s="6">
-        <f t="shared" ref="Q21:AJ21" si="28">+Q5/Q3</f>
+      <c r="Q21">
+        <f>+Q20/main!L3</f>
+        <v>562.85595891305752</v>
+      </c>
+      <c r="R21" s="9"/>
+      <c r="T21" s="6">
+        <f t="shared" ref="T21:AM21" si="29">+T5/T3</f>
         <v>0.78347297378418479</v>
       </c>
-      <c r="R21" s="6">
-        <f t="shared" si="28"/>
+      <c r="U21" s="6">
+        <f t="shared" si="29"/>
         <v>0.80757740861817184</v>
       </c>
-      <c r="S21" s="6">
-        <f t="shared" si="28"/>
-        <v>0.80757740861817195</v>
-      </c>
-      <c r="T21" s="6">
-        <f t="shared" si="28"/>
-        <v>0.80757740861817184</v>
-      </c>
-      <c r="U21" s="6">
-        <f t="shared" si="28"/>
-        <v>0.80757740861817184</v>
-      </c>
       <c r="V21" s="6">
-        <f t="shared" si="28"/>
-        <v>0.80757740861817184</v>
+        <f t="shared" si="29"/>
+        <v>0.8</v>
       </c>
       <c r="W21" s="6">
-        <f t="shared" si="28"/>
-        <v>0.80757740861817195</v>
+        <f t="shared" si="29"/>
+        <v>0.8</v>
       </c>
       <c r="X21" s="6">
-        <f t="shared" si="28"/>
-        <v>0.80757740861817195</v>
+        <f t="shared" si="29"/>
+        <v>0.8</v>
       </c>
       <c r="Y21" s="6">
-        <f t="shared" si="28"/>
-        <v>0.80757740861817184</v>
+        <f t="shared" si="29"/>
+        <v>0.8</v>
       </c>
       <c r="Z21" s="6">
-        <f t="shared" si="28"/>
-        <v>0.80757740861817184</v>
+        <f t="shared" si="29"/>
+        <v>0.8</v>
       </c>
       <c r="AA21" s="6">
-        <f t="shared" si="28"/>
-        <v>0.80757740861817184</v>
-      </c>
-      <c r="AB21" s="6">
-        <f t="shared" si="28"/>
-        <v>0.80757740861817184</v>
-      </c>
-      <c r="AC21" s="6">
-        <f t="shared" si="28"/>
-        <v>0.80757740861817195</v>
-      </c>
-      <c r="AD21" s="6">
-        <f t="shared" si="28"/>
-        <v>0.80757740861817184</v>
-      </c>
-      <c r="AE21" s="6">
-        <f t="shared" si="28"/>
-        <v>0.80757740861817195</v>
-      </c>
-      <c r="AF21" s="6">
-        <f t="shared" si="28"/>
-        <v>0.80757740861817184</v>
-      </c>
-      <c r="AG21" s="6">
-        <f t="shared" si="28"/>
-        <v>0.80757740861817195</v>
-      </c>
-      <c r="AH21" s="6">
-        <f t="shared" si="28"/>
-        <v>0.80757740861817195</v>
-      </c>
-      <c r="AI21" s="6">
-        <f t="shared" si="28"/>
-        <v>0.80757740861817195</v>
-      </c>
-      <c r="AJ21" s="6">
-        <f t="shared" si="28"/>
-        <v>0.80757740861817195</v>
-      </c>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+        <f t="shared" si="29"/>
+        <v>0.8</v>
+      </c>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
+      <c r="AF21" s="6"/>
+      <c r="AG21" s="6"/>
+      <c r="AH21" s="6"/>
+      <c r="AI21" s="6"/>
+      <c r="AJ21" s="6"/>
+      <c r="AK21" s="6"/>
+      <c r="AL21" s="6"/>
+      <c r="AM21" s="6"/>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>43</v>
       </c>
       <c r="B22" s="6">
-        <f t="shared" ref="B22:J22" si="29">+B6/B3</f>
+        <f t="shared" ref="B22:J22" si="30">+B6/B3</f>
         <v>0.27615737422961156</v>
       </c>
       <c r="C22" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.30150579418499757</v>
       </c>
       <c r="D22" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.33087969979071952</v>
       </c>
       <c r="E22" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.30377739779263174</v>
       </c>
       <c r="F22" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.32749170884971202</v>
       </c>
       <c r="G22" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.29200912528516515</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.27063199203420607</v>
       </c>
       <c r="I22" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.26219740220887039</v>
       </c>
       <c r="J22" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.27370731038266355</v>
       </c>
       <c r="K22" s="6">
         <f>+K6/K3</f>
         <v>0.26968851577896652</v>
       </c>
-      <c r="M22" t="s">
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="P22" t="s">
         <v>40</v>
       </c>
-      <c r="N22" s="3">
+      <c r="Q22" s="3">
         <f>+main!L2</f>
         <v>537.5</v>
       </c>
-      <c r="Q22" s="6">
-        <f t="shared" ref="Q22:AJ22" si="30">+Q6/Q3</f>
+      <c r="T22" s="6">
+        <f t="shared" ref="T22:AM22" si="31">+T6/T3</f>
         <v>0.30304693462768739</v>
       </c>
-      <c r="R22" s="6">
-        <f t="shared" si="30"/>
+      <c r="U22" s="6">
+        <f t="shared" si="31"/>
         <v>0.28526845612708579</v>
       </c>
-      <c r="S22" s="6">
-        <f t="shared" si="30"/>
-        <v>0.27983477124847456</v>
-      </c>
-      <c r="T22" s="6">
-        <f t="shared" si="30"/>
-        <v>0.27450458512945597</v>
-      </c>
-      <c r="U22" s="6">
-        <f t="shared" si="30"/>
-        <v>0.26927592636508541</v>
-      </c>
       <c r="V22" s="6">
-        <f t="shared" si="30"/>
-        <v>0.26414686110098856</v>
+        <f t="shared" si="31"/>
+        <v>0.2496098991112001</v>
       </c>
       <c r="W22" s="6">
-        <f t="shared" si="30"/>
-        <v>0.25911549231811259</v>
+        <f t="shared" si="31"/>
+        <v>0.21840866172230008</v>
       </c>
       <c r="X22" s="6">
-        <f t="shared" si="30"/>
-        <v>0.25417995913110092</v>
+        <f t="shared" si="31"/>
+        <v>0.19941660418123056</v>
       </c>
       <c r="Y22" s="6">
-        <f t="shared" si="30"/>
-        <v>0.24933843610003237</v>
+        <f t="shared" si="31"/>
+        <v>0.19035221308208369</v>
       </c>
       <c r="Z22" s="6">
-        <f t="shared" si="30"/>
-        <v>0.24458913255526982</v>
+        <f t="shared" si="31"/>
+        <v>0.18169983976017079</v>
       </c>
       <c r="AA22" s="6">
-        <f t="shared" si="30"/>
-        <v>0.23993029193516943</v>
-      </c>
-      <c r="AB22" s="6">
-        <f t="shared" si="30"/>
-        <v>0.23536019113640427</v>
-      </c>
-      <c r="AC22" s="6">
-        <f t="shared" si="30"/>
-        <v>0.23087713987666322</v>
-      </c>
-      <c r="AD22" s="6">
-        <f t="shared" si="30"/>
-        <v>0.2264794800694887</v>
-      </c>
-      <c r="AE22" s="6">
-        <f t="shared" si="30"/>
-        <v>0.22216558521102225</v>
-      </c>
-      <c r="AF22" s="6">
-        <f t="shared" si="30"/>
-        <v>0.21793385977843133</v>
-      </c>
-      <c r="AG22" s="6">
-        <f t="shared" si="30"/>
-        <v>0.21378273863979455</v>
-      </c>
-      <c r="AH22" s="6">
-        <f t="shared" si="30"/>
-        <v>0.20971068647522703</v>
-      </c>
-      <c r="AI22" s="6">
-        <f t="shared" si="30"/>
-        <v>0.20571619720903225</v>
-      </c>
-      <c r="AJ22" s="6">
-        <f t="shared" si="30"/>
-        <v>0.20179779345266974</v>
-      </c>
-    </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+        <f t="shared" si="31"/>
+        <v>0.17344075613470844</v>
+      </c>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="6"/>
+      <c r="AF22" s="6"/>
+      <c r="AG22" s="6"/>
+      <c r="AH22" s="6"/>
+      <c r="AI22" s="6"/>
+      <c r="AJ22" s="6"/>
+      <c r="AK22" s="6"/>
+      <c r="AL22" s="6"/>
+      <c r="AM22" s="6"/>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="6">
-        <f t="shared" ref="B23:J23" si="31">+B7/B3</f>
+        <f t="shared" ref="B23:J23" si="32">+B7/B3</f>
         <v>0.11867564855955282</v>
       </c>
       <c r="C23" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.12473110818125044</v>
       </c>
       <c r="D23" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.13639315869235766</v>
       </c>
       <c r="E23" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.142204259288046</v>
       </c>
       <c r="F23" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.10626636411241054</v>
       </c>
       <c r="G23" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>9.8565580174380454E-2</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>8.4255842558425581E-2</v>
       </c>
       <c r="I23" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>8.0426815586746775E-2</v>
       </c>
       <c r="J23" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>7.0333287614867651E-2</v>
       </c>
       <c r="K23" s="6">
         <f>+K7/K3</f>
         <v>6.9642445803793099E-2</v>
       </c>
-      <c r="M23" t="s">
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="P23" t="s">
         <v>41</v>
       </c>
-      <c r="N23" s="6">
-        <f>+N21/N22-1</f>
-        <v>2.3908782459422184E-2</v>
-      </c>
-      <c r="O23" s="3"/>
       <c r="Q23" s="6">
-        <f t="shared" ref="Q23:AJ23" si="32">+Q7/Q3</f>
+        <f>+Q21/Q22-1</f>
+        <v>4.717387704754894E-2</v>
+      </c>
+      <c r="R23" s="3"/>
+      <c r="T23" s="6">
+        <f t="shared" ref="T23:AM23" si="33">+T7/T3</f>
         <v>0.13087326021147597</v>
       </c>
-      <c r="R23" s="6">
-        <f t="shared" si="32"/>
+      <c r="U23" s="6">
+        <f t="shared" si="33"/>
         <v>9.1185387802907317E-2</v>
       </c>
-      <c r="S23" s="6">
-        <f t="shared" si="32"/>
-        <v>8.9448523273328126E-2</v>
-      </c>
-      <c r="T23" s="6">
-        <f t="shared" si="32"/>
-        <v>8.7744741877645666E-2</v>
-      </c>
-      <c r="U23" s="6">
-        <f t="shared" si="32"/>
-        <v>8.6073413460928602E-2</v>
-      </c>
       <c r="V23" s="6">
-        <f t="shared" si="32"/>
-        <v>8.4433919871196639E-2</v>
+        <f t="shared" si="33"/>
+        <v>7.8267457864162129E-2</v>
       </c>
       <c r="W23" s="6">
-        <f t="shared" si="32"/>
-        <v>8.2825654730792897E-2</v>
+        <f t="shared" si="33"/>
+        <v>6.7179568000072493E-2</v>
       </c>
       <c r="X23" s="6">
-        <f t="shared" si="32"/>
-        <v>8.1248023212111123E-2</v>
+        <f t="shared" si="33"/>
+        <v>6.0169526121804061E-2</v>
       </c>
       <c r="Y23" s="6">
-        <f t="shared" si="32"/>
-        <v>7.9700441817594711E-2</v>
+        <f t="shared" si="33"/>
+        <v>5.6340556277689254E-2</v>
       </c>
       <c r="Z23" s="6">
-        <f t="shared" si="32"/>
-        <v>7.8182338163926238E-2</v>
+        <f t="shared" si="33"/>
+        <v>5.2755248150927206E-2</v>
       </c>
       <c r="AA23" s="6">
-        <f t="shared" si="32"/>
-        <v>7.6693150770327637E-2</v>
-      </c>
-      <c r="AB23" s="6">
-        <f t="shared" si="32"/>
-        <v>7.5232328850892816E-2</v>
-      </c>
-      <c r="AC23" s="6">
-        <f t="shared" si="32"/>
-        <v>7.3799332110875804E-2</v>
-      </c>
-      <c r="AD23" s="6">
-        <f t="shared" si="32"/>
-        <v>7.2393630546859128E-2</v>
-      </c>
-      <c r="AE23" s="6">
-        <f t="shared" si="32"/>
-        <v>7.1014704250728478E-2</v>
-      </c>
-      <c r="AF23" s="6">
-        <f t="shared" si="32"/>
-        <v>6.9662043217381259E-2</v>
-      </c>
-      <c r="AG23" s="6">
-        <f t="shared" si="32"/>
-        <v>6.83351471560978E-2</v>
-      </c>
-      <c r="AH23" s="6">
-        <f t="shared" si="32"/>
-        <v>6.7033525305505451E-2</v>
-      </c>
-      <c r="AI23" s="6">
-        <f t="shared" si="32"/>
-        <v>6.5756696252067259E-2</v>
-      </c>
-      <c r="AJ23" s="6">
-        <f t="shared" si="32"/>
-        <v>6.4504187752027889E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+        <f t="shared" si="33"/>
+        <v>4.9398095995868196E-2</v>
+      </c>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="6"/>
+      <c r="AF23" s="6"/>
+      <c r="AG23" s="6"/>
+      <c r="AH23" s="6"/>
+      <c r="AI23" s="6"/>
+      <c r="AJ23" s="6"/>
+      <c r="AK23" s="6"/>
+      <c r="AL23" s="6"/>
+      <c r="AM23" s="6"/>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>45</v>
       </c>
       <c r="B24" s="6">
-        <f t="shared" ref="B24:J24" si="33">+B8/B3</f>
+        <f t="shared" ref="B24:J24" si="34">+B8/B3</f>
         <v>8.4563566002579901E-2</v>
       </c>
       <c r="C24" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.1036361113038651</v>
       </c>
       <c r="D24" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.12210435159125352</v>
       </c>
       <c r="E24" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9.5911705269703093E-2</v>
       </c>
       <c r="F24" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.10071565718275441</v>
       </c>
       <c r="G24" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.13012906653332917</v>
       </c>
       <c r="H24" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>6.062203479177649E-2</v>
       </c>
       <c r="I24" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>5.7066640073795215E-2</v>
       </c>
       <c r="J24" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9.4774379371828282E-2</v>
       </c>
       <c r="K24" s="6">
         <f>+K8/K3</f>
         <v>9.3624427324614165E-2</v>
       </c>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="Q24" s="6">
-        <f t="shared" ref="Q24:AJ24" si="34">+Q8/Q3</f>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="T24" s="6">
+        <f t="shared" ref="T24:AM24" si="35">+T8/T3</f>
         <v>0.10133008601394404</v>
       </c>
-      <c r="R24" s="6">
-        <f t="shared" si="34"/>
+      <c r="U24" s="6">
+        <f t="shared" si="35"/>
         <v>8.4565718563983955E-2</v>
       </c>
-      <c r="S24" s="6">
-        <f t="shared" si="34"/>
-        <v>8.2954942972289017E-2</v>
-      </c>
-      <c r="T24" s="6">
-        <f t="shared" si="34"/>
-        <v>8.1374848820435886E-2</v>
-      </c>
-      <c r="U24" s="6">
-        <f t="shared" si="34"/>
-        <v>7.9824851700046634E-2</v>
-      </c>
       <c r="V24" s="6">
-        <f t="shared" si="34"/>
-        <v>7.8304378334331473E-2</v>
+        <f t="shared" si="35"/>
+        <v>7.04714321366533E-2</v>
       </c>
       <c r="W24" s="6">
-        <f t="shared" si="34"/>
-        <v>7.6812866366058496E-2</v>
+        <f t="shared" si="35"/>
+        <v>5.8726193447211091E-2</v>
       </c>
       <c r="X24" s="6">
-        <f t="shared" si="34"/>
-        <v>7.534976414956214E-2</v>
+        <f t="shared" si="35"/>
+        <v>5.1066255171487905E-2</v>
       </c>
       <c r="Y24" s="6">
-        <f t="shared" si="34"/>
-        <v>7.391453054671332E-2</v>
+        <f t="shared" si="35"/>
+        <v>4.6423868337716279E-2</v>
       </c>
       <c r="Z24" s="6">
-        <f t="shared" si="34"/>
-        <v>7.2506634726775918E-2</v>
+        <f t="shared" si="35"/>
+        <v>4.2203516670651156E-2</v>
       </c>
       <c r="AA24" s="6">
-        <f t="shared" si="34"/>
-        <v>7.112555597007543E-2</v>
-      </c>
-      <c r="AB24" s="6">
-        <f t="shared" si="34"/>
-        <v>6.9770783475407314E-2</v>
-      </c>
-      <c r="AC24" s="6">
-        <f t="shared" si="34"/>
-        <v>6.8441816171113848E-2</v>
-      </c>
-      <c r="AD24" s="6">
-        <f t="shared" si="34"/>
-        <v>6.7138162529759293E-2</v>
-      </c>
-      <c r="AE24" s="6">
-        <f t="shared" si="34"/>
-        <v>6.5859340386335313E-2</v>
-      </c>
-      <c r="AF24" s="6">
-        <f t="shared" si="34"/>
-        <v>6.4604876759928917E-2</v>
-      </c>
-      <c r="AG24" s="6">
-        <f t="shared" si="34"/>
-        <v>6.337430767878742E-2</v>
-      </c>
-      <c r="AH24" s="6">
-        <f t="shared" si="34"/>
-        <v>6.2167178008715275E-2</v>
-      </c>
-      <c r="AI24" s="6">
-        <f t="shared" si="34"/>
-        <v>6.0983041284739747E-2</v>
-      </c>
-      <c r="AJ24" s="6">
-        <f t="shared" si="34"/>
-        <v>5.9821459545982794E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+        <f t="shared" si="35"/>
+        <v>3.8366833336955591E-2</v>
+      </c>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="6"/>
+      <c r="AE24" s="6"/>
+      <c r="AF24" s="6"/>
+      <c r="AG24" s="6"/>
+      <c r="AH24" s="6"/>
+      <c r="AI24" s="6"/>
+      <c r="AJ24" s="6"/>
+      <c r="AK24" s="6"/>
+      <c r="AL24" s="6"/>
+      <c r="AM24" s="6"/>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>42</v>
       </c>
       <c r="B25" s="6">
-        <f t="shared" ref="B25:J25" si="35">+B10/B3</f>
+        <f t="shared" ref="B25:J25" si="36">+B10/B3</f>
         <v>0.30543213415508097</v>
       </c>
       <c r="C25" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.28998681562695161</v>
       </c>
       <c r="D25" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.20437324096124701</v>
       </c>
       <c r="E25" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.19894295041193844</v>
       </c>
       <c r="F25" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.25229533950078548</v>
       </c>
       <c r="G25" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.29350917216163003</v>
       </c>
       <c r="H25" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.40262402624026239</v>
       </c>
       <c r="I25" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.4084665054473835</v>
       </c>
       <c r="J25" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.37904265532848719</v>
       </c>
       <c r="K25" s="6">
         <f>+K10/K3</f>
         <v>0.38000051188861306</v>
       </c>
-      <c r="Q25" s="6">
-        <f t="shared" ref="Q25:AJ25" si="36">+Q10/Q3</f>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="T25" s="6">
+        <f t="shared" ref="T25:AM25" si="37">+T10/T3</f>
         <v>0.24822269293107735</v>
       </c>
-      <c r="R25" s="6">
-        <f t="shared" si="36"/>
+      <c r="U25" s="6">
+        <f t="shared" si="37"/>
         <v>0.34655784612419477</v>
       </c>
-      <c r="S25" s="6">
-        <f t="shared" si="36"/>
-        <v>0.3553391711240802</v>
-      </c>
-      <c r="T25" s="6">
-        <f t="shared" si="36"/>
-        <v>0.36395323279063435</v>
-      </c>
-      <c r="U25" s="6">
-        <f t="shared" si="36"/>
-        <v>0.37240321709211122</v>
-      </c>
       <c r="V25" s="6">
-        <f t="shared" si="36"/>
-        <v>0.38069224931165518</v>
+        <f t="shared" si="37"/>
+        <v>0.4016512108879845</v>
       </c>
       <c r="W25" s="6">
-        <f t="shared" si="36"/>
-        <v>0.38882339520320791</v>
+        <f t="shared" si="37"/>
+        <v>0.45568557683041644</v>
       </c>
       <c r="X25" s="6">
-        <f t="shared" si="36"/>
-        <v>0.39679966212539769</v>
+        <f t="shared" si="37"/>
+        <v>0.48934761452547743</v>
       </c>
       <c r="Y25" s="6">
-        <f t="shared" si="36"/>
-        <v>0.40462400015383143</v>
+        <f t="shared" si="37"/>
+        <v>0.50688336230251085</v>
       </c>
       <c r="Z25" s="6">
-        <f t="shared" si="36"/>
-        <v>0.41229930317219987</v>
+        <f t="shared" si="37"/>
+        <v>0.52334139541825087</v>
       </c>
       <c r="AA25" s="6">
-        <f t="shared" si="36"/>
-        <v>0.4198284099425994</v>
-      </c>
-      <c r="AB25" s="6">
-        <f t="shared" si="36"/>
-        <v>0.42721410515546748</v>
-      </c>
-      <c r="AC25" s="6">
-        <f t="shared" si="36"/>
-        <v>0.43445912045951907</v>
-      </c>
-      <c r="AD25" s="6">
-        <f t="shared" si="36"/>
-        <v>0.44156613547206475</v>
-      </c>
-      <c r="AE25" s="6">
-        <f t="shared" si="36"/>
-        <v>0.44853777877008588</v>
-      </c>
-      <c r="AF25" s="6">
-        <f t="shared" si="36"/>
-        <v>0.45537662886243035</v>
-      </c>
-      <c r="AG25" s="6">
-        <f t="shared" si="36"/>
-        <v>0.46208521514349221</v>
-      </c>
-      <c r="AH25" s="6">
-        <f t="shared" si="36"/>
-        <v>0.46866601882872416</v>
-      </c>
-      <c r="AI25" s="6">
-        <f t="shared" si="36"/>
-        <v>0.47512147387233261</v>
-      </c>
-      <c r="AJ25" s="6">
-        <f t="shared" si="36"/>
-        <v>0.48145396786749145</v>
-      </c>
-    </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+        <f t="shared" si="37"/>
+        <v>0.53879431453246773</v>
+      </c>
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="6"/>
+      <c r="AD25" s="6"/>
+      <c r="AE25" s="6"/>
+      <c r="AF25" s="6"/>
+      <c r="AG25" s="6"/>
+      <c r="AH25" s="6"/>
+      <c r="AI25" s="6"/>
+      <c r="AJ25" s="6"/>
+      <c r="AK25" s="6"/>
+      <c r="AL25" s="6"/>
+      <c r="AM25" s="6"/>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>46</v>
       </c>
       <c r="B26" s="6">
-        <f t="shared" ref="B26:J26" si="37">+B13/B12</f>
+        <f t="shared" ref="B26:J26" si="38">+B13/B12</f>
         <v>0.1619892231701841</v>
       </c>
       <c r="C26" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.18311751771316884</v>
       </c>
       <c r="D26" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.21180057388809181</v>
       </c>
       <c r="E26" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.24345422019840623</v>
       </c>
       <c r="F26" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.21869440262761736</v>
       </c>
       <c r="G26" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.16194985472936618</v>
       </c>
       <c r="H26" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.1738231098430813</v>
       </c>
       <c r="I26" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.16605188005711566</v>
       </c>
       <c r="J26" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.12789959811041388</v>
       </c>
       <c r="K26" s="6">
         <f>+K13/K12</f>
         <v>0.10863233152389778</v>
       </c>
-      <c r="Q26" s="6">
-        <f t="shared" ref="Q26:AJ26" si="38">+Q13/Q12</f>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="T26" s="6">
+        <f t="shared" ref="T26:AM26" si="39">+T13/T12</f>
         <v>0.19501023630243935</v>
       </c>
-      <c r="R26" s="6">
-        <f t="shared" si="38"/>
+      <c r="U26" s="6">
+        <f t="shared" si="39"/>
         <v>0.17471855443517942</v>
       </c>
-      <c r="S26" s="6">
-        <f t="shared" si="38"/>
-        <v>0.18000000000000002</v>
-      </c>
-      <c r="T26" s="6">
-        <f t="shared" si="38"/>
-        <v>0.18</v>
-      </c>
-      <c r="U26" s="6">
-        <f t="shared" si="38"/>
-        <v>0.18</v>
-      </c>
       <c r="V26" s="6">
-        <f t="shared" si="38"/>
-        <v>0.18</v>
+        <f t="shared" si="39"/>
+        <v>0.2</v>
       </c>
       <c r="W26" s="6">
-        <f t="shared" si="38"/>
-        <v>0.18</v>
+        <f t="shared" si="39"/>
+        <v>0.19999999999999998</v>
       </c>
       <c r="X26" s="6">
-        <f t="shared" si="38"/>
-        <v>0.18</v>
+        <f t="shared" si="39"/>
+        <v>0.2</v>
       </c>
       <c r="Y26" s="6">
-        <f t="shared" si="38"/>
-        <v>0.18</v>
+        <f t="shared" si="39"/>
+        <v>0.2</v>
       </c>
       <c r="Z26" s="6">
-        <f t="shared" si="38"/>
-        <v>0.18</v>
+        <f t="shared" si="39"/>
+        <v>0.2</v>
       </c>
       <c r="AA26" s="6">
-        <f t="shared" si="38"/>
-        <v>0.18</v>
-      </c>
-      <c r="AB26" s="6">
-        <f t="shared" si="38"/>
-        <v>0.18</v>
-      </c>
-      <c r="AC26" s="6">
-        <f t="shared" si="38"/>
-        <v>0.18</v>
-      </c>
-      <c r="AD26" s="6">
-        <f t="shared" si="38"/>
-        <v>0.18</v>
-      </c>
-      <c r="AE26" s="6">
-        <f t="shared" si="38"/>
-        <v>0.18</v>
-      </c>
-      <c r="AF26" s="6">
-        <f t="shared" si="38"/>
-        <v>0.18</v>
-      </c>
-      <c r="AG26" s="6">
-        <f t="shared" si="38"/>
-        <v>0.18000000000000002</v>
-      </c>
-      <c r="AH26" s="6">
-        <f t="shared" si="38"/>
-        <v>0.17999999999999997</v>
-      </c>
-      <c r="AI26" s="6">
-        <f t="shared" si="38"/>
-        <v>0.17999999999999997</v>
-      </c>
-      <c r="AJ26" s="6">
-        <f t="shared" si="38"/>
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+        <f t="shared" si="39"/>
+        <v>0.2</v>
+      </c>
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="6"/>
+      <c r="AD26" s="6"/>
+      <c r="AE26" s="6"/>
+      <c r="AF26" s="6"/>
+      <c r="AG26" s="6"/>
+      <c r="AH26" s="6"/>
+      <c r="AI26" s="6"/>
+      <c r="AJ26" s="6"/>
+      <c r="AK26" s="6"/>
+      <c r="AL26" s="6"/>
+      <c r="AM26" s="6"/>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>47</v>
       </c>
       <c r="B27" s="6">
-        <f t="shared" ref="B27:K27" si="39">+B14/B3</f>
+        <f t="shared" ref="B27:K27" si="40">+B14/B3</f>
         <v>0.26748602551239786</v>
       </c>
       <c r="C27" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.23201026993269031</v>
       </c>
       <c r="D27" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.15858410911452694</v>
       </c>
       <c r="E27" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.1446292554018343</v>
       </c>
       <c r="F27" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.19930179787048349</v>
       </c>
       <c r="G27" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.24338260570642833</v>
       </c>
       <c r="H27" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.33921982076963625</v>
       </c>
       <c r="I27" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.34945526164892421</v>
       </c>
       <c r="J27" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.33929502125908656</v>
       </c>
       <c r="K27" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.34462900872770086</v>
       </c>
-      <c r="Q27" s="6">
-        <f t="shared" ref="Q27:AJ27" si="40">+Q14/Q3</f>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="T27" s="6">
+        <f t="shared" ref="T27:AM27" si="41">+T14/T3</f>
         <v>0.19894690804311846</v>
       </c>
-      <c r="R27" s="6">
-        <f t="shared" si="40"/>
+      <c r="U27" s="6">
+        <f t="shared" si="41"/>
         <v>0.29170576941609033</v>
       </c>
-      <c r="S27" s="6">
-        <f t="shared" si="40"/>
-        <v>0.29677006736156791</v>
-      </c>
-      <c r="T27" s="6">
-        <f t="shared" si="40"/>
-        <v>0.31516500308036438</v>
-      </c>
-      <c r="U27" s="6">
-        <f t="shared" si="40"/>
-        <v>0.33360408308061612</v>
-      </c>
       <c r="V27" s="6">
-        <f t="shared" si="40"/>
-        <v>0.35208308488450024</v>
+        <f t="shared" si="41"/>
+        <v>0.32592385032974802</v>
       </c>
       <c r="W27" s="6">
-        <f t="shared" si="40"/>
-        <v>0.37059789542778054</v>
+        <f t="shared" si="41"/>
+        <v>0.37924832449145834</v>
       </c>
       <c r="X27" s="6">
-        <f t="shared" si="40"/>
-        <v>0.38914450872729184</v>
+        <f t="shared" si="41"/>
+        <v>0.41745182727845465</v>
       </c>
       <c r="Y27" s="6">
-        <f t="shared" si="40"/>
-        <v>0.40771902359498441</v>
+        <f t="shared" si="41"/>
+        <v>0.44429924325038217</v>
       </c>
       <c r="Z27" s="6">
-        <f t="shared" si="40"/>
-        <v>0.42631764139762002</v>
+        <f t="shared" si="41"/>
+        <v>0.47009541009677236</v>
       </c>
       <c r="AA27" s="6">
-        <f t="shared" si="40"/>
-        <v>0.44493666386123487</v>
-      </c>
-      <c r="AB27" s="6">
-        <f t="shared" si="40"/>
-        <v>0.46357249091949665</v>
-      </c>
-      <c r="AC27" s="6">
-        <f t="shared" si="40"/>
-        <v>0.48222161860510354</v>
-      </c>
-      <c r="AD27" s="6">
-        <f t="shared" si="40"/>
-        <v>0.50088063698338559</v>
-      </c>
-      <c r="AE27" s="6">
-        <f t="shared" si="40"/>
-        <v>0.51954622812729057</v>
-      </c>
-      <c r="AF27" s="6">
-        <f t="shared" si="40"/>
-        <v>0.53821516413294446</v>
-      </c>
-      <c r="AG27" s="6">
-        <f t="shared" si="40"/>
-        <v>0.55688430517499909</v>
-      </c>
-      <c r="AH27" s="6">
-        <f t="shared" si="40"/>
-        <v>0.57555059760099225</v>
-      </c>
-      <c r="AI27" s="6">
-        <f t="shared" si="40"/>
-        <v>0.59421107206395962</v>
-      </c>
-      <c r="AJ27" s="6">
-        <f t="shared" si="40"/>
-        <v>0.61286284169255167</v>
-      </c>
-    </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="U30" t="s">
+        <f t="shared" si="41"/>
+        <v>0.49487736995874015</v>
+      </c>
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="6"/>
+      <c r="AD27" s="6"/>
+      <c r="AE27" s="6"/>
+      <c r="AF27" s="6"/>
+      <c r="AG27" s="6"/>
+      <c r="AH27" s="6"/>
+      <c r="AI27" s="6"/>
+      <c r="AJ27" s="6"/>
+      <c r="AK27" s="6"/>
+      <c r="AL27" s="6"/>
+      <c r="AM27" s="6"/>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="X30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="Q31" t="s">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="T31" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:39" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="P33" s="1" t="s">
+      <c r="S33" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R33" s="1">
-        <f>+R36-R47</f>
+      <c r="U33" s="1">
+        <f>+U36-U47</f>
         <v>18628</v>
       </c>
-      <c r="S33" s="4">
-        <f>+R33+S14</f>
-        <v>60664.307800000024</v>
-      </c>
-      <c r="T33" s="4">
-        <f t="shared" ref="T33:AJ33" si="41">+S33+T14</f>
-        <v>107538.27947380005</v>
-      </c>
-      <c r="U33" s="4">
-        <f t="shared" si="41"/>
-        <v>159635.48442084587</v>
-      </c>
       <c r="V33" s="4">
-        <f t="shared" si="41"/>
-        <v>217367.60713752918</v>
+        <f>+U33+V14</f>
+        <v>71388.943999999989</v>
       </c>
       <c r="W33" s="4">
-        <f t="shared" si="41"/>
-        <v>281174.06163851684</v>
+        <f t="shared" ref="W33:AM33" si="42">+V33+W14</f>
+        <v>145060.75263999996</v>
       </c>
       <c r="X33" s="4">
-        <f t="shared" si="41"/>
-        <v>351523.70010541589</v>
+        <f t="shared" si="42"/>
+        <v>238317.84442399992</v>
       </c>
       <c r="Y33" s="4">
-        <f t="shared" si="41"/>
-        <v>428916.62105342577</v>
+        <f t="shared" si="42"/>
+        <v>347498.01291251188</v>
       </c>
       <c r="Z33" s="4">
-        <f t="shared" si="41"/>
-        <v>513886.08259567991</v>
+        <f t="shared" si="42"/>
+        <v>474569.14018929092</v>
       </c>
       <c r="AA33" s="4">
-        <f t="shared" si="41"/>
-        <v>607000.52668950683</v>
+        <f t="shared" si="42"/>
+        <v>621716.0518696825</v>
       </c>
       <c r="AB33" s="4">
-        <f t="shared" si="41"/>
-        <v>708865.72056966973</v>
+        <f t="shared" si="42"/>
+        <v>767391.49443327019</v>
       </c>
       <c r="AC33" s="4">
-        <f t="shared" si="41"/>
-        <v>820127.02191162645</v>
+        <f t="shared" si="42"/>
+        <v>911610.18257122196</v>
       </c>
       <c r="AD33" s="4">
-        <f t="shared" si="41"/>
-        <v>941471.77462389809</v>
+        <f t="shared" si="42"/>
+        <v>1054386.6838277942</v>
       </c>
       <c r="AE33" s="4">
-        <f t="shared" si="41"/>
-        <v>1073631.8425436933</v>
+        <f t="shared" si="42"/>
+        <v>1195735.4200718007</v>
       </c>
       <c r="AF33" s="4">
-        <f t="shared" si="41"/>
-        <v>1217386.2887050053</v>
+        <f t="shared" si="42"/>
+        <v>1335670.668953367</v>
       </c>
       <c r="AG33" s="4">
-        <f t="shared" si="41"/>
-        <v>1373564.2082645404</v>
+        <f t="shared" si="42"/>
+        <v>1474206.5653461178</v>
       </c>
       <c r="AH33" s="4">
-        <f t="shared" si="41"/>
-        <v>1543047.723609149</v>
+        <f t="shared" si="42"/>
+        <v>1611357.1027749411</v>
       </c>
       <c r="AI33" s="4">
-        <f t="shared" si="41"/>
-        <v>1726775.1506300857</v>
+        <f t="shared" si="42"/>
+        <v>1747136.1348294762</v>
       </c>
       <c r="AJ33" s="4">
-        <f t="shared" si="41"/>
-        <v>1925744.3456356474</v>
-      </c>
-    </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+        <f t="shared" si="42"/>
+        <v>1881557.3765634659</v>
+      </c>
+      <c r="AK33" s="4">
+        <f t="shared" si="42"/>
+        <v>2014634.4058801157</v>
+      </c>
+      <c r="AL33" s="4">
+        <f t="shared" si="42"/>
+        <v>2146380.6649035988</v>
+      </c>
+      <c r="AM33" s="4">
+        <f t="shared" si="42"/>
+        <v>2276809.4613368474</v>
+      </c>
+    </row>
+    <row r="36" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>49</v>
       </c>
-      <c r="R36">
+      <c r="U36">
         <v>41862</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>23</v>
       </c>
-      <c r="R37">
+      <c r="U37">
         <v>23541</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -4066,72 +3097,75 @@
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
-      <c r="R38">
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38">
         <v>16169</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>52</v>
       </c>
-      <c r="R39">
+      <c r="U39">
         <v>3793</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>53</v>
       </c>
-      <c r="R40">
+      <c r="U40">
         <v>6141</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>54</v>
       </c>
-      <c r="R41">
+      <c r="U41">
         <v>96587</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>55</v>
       </c>
-      <c r="R42">
+      <c r="U42">
         <v>13294</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>56</v>
       </c>
-      <c r="R43">
+      <c r="U43">
         <f>788+20654</f>
         <v>21442</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>57</v>
       </c>
-      <c r="R44">
+      <c r="U44">
         <v>6794</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="T45" t="s">
         <v>10</v>
       </c>
-      <c r="R45" s="1">
-        <f>SUM(R36:R44)</f>
+      <c r="U45" s="1">
+        <f>SUM(U36:U44)</f>
         <v>229623</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -4151,101 +3185,104 @@
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
-      <c r="R47">
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47">
         <f>4849+18385</f>
         <v>23234</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>58</v>
       </c>
-      <c r="R48">
+      <c r="U48">
         <v>863</v>
       </c>
     </row>
-    <row r="49" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>59</v>
       </c>
-      <c r="R49">
+      <c r="U49">
         <v>1623</v>
       </c>
     </row>
-    <row r="50" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>60</v>
       </c>
-      <c r="R50">
+      <c r="U50">
         <v>24625</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>61</v>
       </c>
-      <c r="R51">
+      <c r="U51">
         <v>17226</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>62</v>
       </c>
-      <c r="R52">
+      <c r="U52">
         <v>884</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>57</v>
       </c>
-      <c r="R53">
+      <c r="U53">
         <v>8884</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="R54" s="1">
-        <f>SUM(R47:R53)</f>
+      <c r="U54" s="1">
+        <f>SUM(U47:U53)</f>
         <v>77339</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="R56" s="1">
-        <f>+R45-R54</f>
+      <c r="U56" s="1">
+        <f>+U45-U54</f>
         <v>152284</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="R57" s="1">
-        <f>+R54+R56</f>
+      <c r="U57" s="1">
+        <f>+U54+U56</f>
         <v>229623</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>67</v>
       </c>
-      <c r="R60" s="6">
-        <f>+R14/R45</f>
+      <c r="U60" s="6">
+        <f>+U14/U45</f>
         <v>0.17137394773171677</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>68</v>
       </c>
-      <c r="R61" s="6">
-        <f>+R14/(R45-R54)</f>
+      <c r="U61" s="6">
+        <f>+U14/(U45-U54)</f>
         <v>0.25840797457382259</v>
       </c>
     </row>
@@ -4256,23 +3293,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="de0fd296-9832-4e10-a7ad-2bcee574d3b0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010078CBFEB144F63F4E9EB43CF067A3FDD2" ma:contentTypeVersion="9" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="f59182e7d3e0cf5298e8ad942a121699">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="de0fd296-9832-4e10-a7ad-2bcee574d3b0" xmlns:ns4="02570eab-4ecf-4bb5-b806-a666b23f79b6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f61c57c9eb7d1a1f1952f23e1a76f510" ns3:_="" ns4:_="">
     <xsd:import namespace="de0fd296-9832-4e10-a7ad-2bcee574d3b0"/>
@@ -4467,32 +3487,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34E1E6AC-BE1F-4454-ACC0-808E93021859}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="02570eab-4ecf-4bb5-b806-a666b23f79b6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="de0fd296-9832-4e10-a7ad-2bcee574d3b0"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3CAFD1E-70C1-468B-BCA7-27CB3B3A9D77}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="de0fd296-9832-4e10-a7ad-2bcee574d3b0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20302561-F91D-4714-9836-447F718E17F3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4509,4 +3521,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3CAFD1E-70C1-468B-BCA7-27CB3B3A9D77}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34E1E6AC-BE1F-4454-ACC0-808E93021859}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="02570eab-4ecf-4bb5-b806-a666b23f79b6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="de0fd296-9832-4e10-a7ad-2bcee574d3b0"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Stocks/META.xlsx
+++ b/Stocks/META.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://academiafaedupt-my.sharepoint.com/personal/sbclemente_academiafa_edu_pt/Documents/Gigs/WorkingFolder/Finance/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="8_{91A85DBD-37F5-495F-9D0D-AFC39F49FA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB563C9F-E80C-4640-AE0E-C1D41EC2ADCD}"/>
+  <xr:revisionPtr revIDLastSave="142" documentId="8_{91A85DBD-37F5-495F-9D0D-AFC39F49FA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66850A6C-FB13-42C1-8567-B03F7E006BE8}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{A4478C07-9115-4914-9DE9-A3B7CC45EB27}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="104">
   <si>
     <t>META</t>
   </si>
@@ -337,6 +337,18 @@
   </si>
   <si>
     <t>NI y/y</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>FCF</t>
+  </si>
+  <si>
+    <t>CapeX</t>
   </si>
 </sst>
 </file>
@@ -399,7 +411,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -407,13 +419,10 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,6 +544,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -969,13 +982,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{258B6DA0-8374-4467-8FA3-46D3F4C0B8C0}">
-  <dimension ref="A1:BM93"/>
+  <dimension ref="A1:BM95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="V7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="L47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y33" sqref="Y33"/>
+      <selection pane="bottomRight" activeCell="R55" sqref="R55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1044,6 +1057,12 @@
       <c r="O2" s="2" t="s">
         <v>71</v>
       </c>
+      <c r="P2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="Y2" s="2">
         <v>2022</v>
       </c>
@@ -1126,6 +1145,12 @@
       <c r="O3" s="3">
         <v>47516</v>
       </c>
+      <c r="P3" s="3">
+        <v>51242</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="Y3" s="3">
         <f>SUM(B3:E3)</f>
         <v>116609</v>
@@ -1155,7 +1180,7 @@
         <v>335676.85631999996</v>
       </c>
       <c r="AF3" s="3">
-        <f t="shared" ref="AE3:AG3" si="1">+AE3*1.15</f>
+        <f t="shared" ref="AF3:AG3" si="1">+AE3*1.15</f>
         <v>386028.38476799993</v>
       </c>
       <c r="AG3" s="3">
@@ -1209,6 +1234,9 @@
       <c r="O4" s="2">
         <v>8491</v>
       </c>
+      <c r="P4" s="2">
+        <v>9206</v>
+      </c>
       <c r="V4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1302,13 +1330,17 @@
         <v>39546</v>
       </c>
       <c r="N5" s="3">
-        <f t="shared" ref="N5:O5" si="5">+N3-N4</f>
+        <f t="shared" ref="N5:P5" si="5">+N3-N4</f>
         <v>34742</v>
       </c>
       <c r="O5" s="3">
         <f t="shared" si="5"/>
         <v>39025</v>
       </c>
+      <c r="P5" s="3">
+        <f t="shared" si="5"/>
+        <v>42036</v>
+      </c>
       <c r="W5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1383,17 +1415,20 @@
       <c r="K6" s="2">
         <v>10537</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="2">
         <v>11177</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="2">
         <v>12180</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="2">
         <v>12150</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="2">
         <v>12942</v>
+      </c>
+      <c r="P6" s="2">
+        <v>15144</v>
       </c>
       <c r="U6" s="2" t="s">
         <v>9</v>
@@ -1406,7 +1441,7 @@
         <f>SUM(F6:I6)</f>
         <v>38483</v>
       </c>
-      <c r="AA6" s="7">
+      <c r="AA6" s="2">
         <f t="shared" ref="AA6:AA8" si="7">SUM(J6:M6)</f>
         <v>43872</v>
       </c>
@@ -1481,6 +1516,9 @@
       <c r="O7" s="2">
         <v>2979</v>
       </c>
+      <c r="P7" s="2">
+        <v>2845</v>
+      </c>
       <c r="Y7" s="2">
         <f>SUM(B7:E7)</f>
         <v>15261</v>
@@ -1489,12 +1527,12 @@
         <f>SUM(F7:I7)</f>
         <v>12301</v>
       </c>
-      <c r="AA7" s="7">
+      <c r="AA7" s="2">
         <f t="shared" si="7"/>
         <v>11347</v>
       </c>
       <c r="AB7" s="2">
-        <f t="shared" ref="AA7:AG7" si="9">+AA7*1.03</f>
+        <f t="shared" ref="AB7:AG7" si="9">+AA7*1.03</f>
         <v>11687.41</v>
       </c>
       <c r="AC7" s="2">
@@ -1564,6 +1602,9 @@
       <c r="O8" s="2">
         <v>2663</v>
       </c>
+      <c r="P8" s="2">
+        <v>3512</v>
+      </c>
       <c r="Y8" s="2">
         <f>SUM(B8:E8)</f>
         <v>11816</v>
@@ -1572,7 +1613,7 @@
         <f>SUM(F8:I8)</f>
         <v>11408</v>
       </c>
-      <c r="AA8" s="7">
+      <c r="AA8" s="2">
         <f t="shared" si="7"/>
         <v>9739</v>
       </c>
@@ -1658,8 +1699,12 @@
         <v>17187</v>
       </c>
       <c r="O9" s="2">
-        <f t="shared" ref="N9:O9" si="13">+O6+O7+O8</f>
+        <f t="shared" ref="O9:P9" si="13">+O6+O7+O8</f>
         <v>18584</v>
+      </c>
+      <c r="P9" s="2">
+        <f t="shared" si="13"/>
+        <v>21501</v>
       </c>
       <c r="Y9" s="2">
         <f t="shared" ref="Y9:AF9" si="14">+Y6+Y7+Y8</f>
@@ -1755,8 +1800,12 @@
         <v>17555</v>
       </c>
       <c r="O10" s="3">
-        <f t="shared" ref="N10:O10" si="19">+O5-O9</f>
+        <f t="shared" ref="O10:P10" si="19">+O5-O9</f>
         <v>20441</v>
+      </c>
+      <c r="P10" s="3">
+        <f t="shared" si="19"/>
+        <v>20535</v>
       </c>
       <c r="Y10" s="3">
         <f t="shared" ref="Y10:AF10" si="20">+Y5-Y9</f>
@@ -1840,6 +1889,9 @@
       </c>
       <c r="O11" s="6">
         <v>93</v>
+      </c>
+      <c r="P11" s="6">
+        <v>1128</v>
       </c>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
@@ -1857,7 +1909,7 @@
         <f>+(Z33*$V$15)</f>
         <v>931.40000000000009</v>
       </c>
-      <c r="AA11" s="13">
+      <c r="AA11" s="6">
         <f t="shared" ref="AA11:AA13" si="23">SUM(J11:M11)</f>
         <v>1284</v>
       </c>
@@ -1943,8 +1995,12 @@
         <v>18382</v>
       </c>
       <c r="O12" s="2">
-        <f t="shared" ref="N12:O12" si="27">+O10+O11</f>
+        <f t="shared" ref="O12:P12" si="27">+O10+O11</f>
         <v>20534</v>
+      </c>
+      <c r="P12" s="2">
+        <f t="shared" si="27"/>
+        <v>21663</v>
       </c>
       <c r="Y12" s="2">
         <f t="shared" ref="Y12:AF12" si="28">+Y10+Y11</f>
@@ -2029,6 +2085,9 @@
       <c r="O13" s="2">
         <v>2197</v>
       </c>
+      <c r="P13" s="2">
+        <v>18954</v>
+      </c>
       <c r="Y13" s="2">
         <f>SUM(B13:E13)</f>
         <v>5620</v>
@@ -2037,7 +2096,7 @@
         <f>SUM(F13:I13)</f>
         <v>8331</v>
       </c>
-      <c r="AA13" s="7">
+      <c r="AA13" s="2">
         <f t="shared" si="23"/>
         <v>8304</v>
       </c>
@@ -2123,8 +2182,15 @@
         <v>16644</v>
       </c>
       <c r="O14" s="3">
-        <f t="shared" ref="N14:O14" si="34">+O12-O13</f>
+        <f t="shared" ref="O14:P14" si="34">+O12-O13</f>
         <v>18337</v>
+      </c>
+      <c r="P14" s="3">
+        <f t="shared" si="34"/>
+        <v>2709</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>24000</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>9</v>
@@ -2167,131 +2233,131 @@
       </c>
       <c r="AH14" s="3">
         <f>+AG14*(1-$V$16)</f>
-        <v>264676.71301660256</v>
+        <v>267377.49580248626</v>
       </c>
       <c r="AI14" s="3">
         <f t="shared" ref="AI14:BM14" si="37">+AH14*(1-$V$16)</f>
-        <v>259383.1787562705</v>
+        <v>264703.72084446141</v>
       </c>
       <c r="AJ14" s="3">
         <f t="shared" si="37"/>
-        <v>254195.51518114508</v>
+        <v>262056.68363601679</v>
       </c>
       <c r="AK14" s="3">
         <f t="shared" si="37"/>
-        <v>249111.60487752219</v>
+        <v>259436.11679965662</v>
       </c>
       <c r="AL14" s="3">
         <f t="shared" si="37"/>
-        <v>244129.37277997175</v>
+        <v>256841.75563166005</v>
       </c>
       <c r="AM14" s="3">
         <f t="shared" si="37"/>
-        <v>239246.78532437229</v>
+        <v>254273.33807534346</v>
       </c>
       <c r="AN14" s="3">
         <f t="shared" si="37"/>
-        <v>234461.84961788484</v>
+        <v>251730.60469459003</v>
       </c>
       <c r="AO14" s="3">
         <f t="shared" si="37"/>
-        <v>229772.61262552714</v>
+        <v>249213.29864764411</v>
       </c>
       <c r="AP14" s="3">
         <f t="shared" si="37"/>
-        <v>225177.16037301658</v>
+        <v>246721.16566116767</v>
       </c>
       <c r="AQ14" s="3">
         <f t="shared" si="37"/>
-        <v>220673.61716555624</v>
+        <v>244253.954004556</v>
       </c>
       <c r="AR14" s="3">
         <f t="shared" si="37"/>
-        <v>216260.14482224511</v>
+        <v>241811.41446451042</v>
       </c>
       <c r="AS14" s="3">
         <f t="shared" si="37"/>
-        <v>211934.9419258002</v>
+        <v>239393.30031986532</v>
       </c>
       <c r="AT14" s="3">
         <f t="shared" si="37"/>
-        <v>207696.24308728418</v>
+        <v>236999.36731666667</v>
       </c>
       <c r="AU14" s="3">
         <f t="shared" si="37"/>
-        <v>203542.3182255385</v>
+        <v>234629.3736435</v>
       </c>
       <c r="AV14" s="3">
         <f t="shared" si="37"/>
-        <v>199471.47186102773</v>
+        <v>232283.079907065</v>
       </c>
       <c r="AW14" s="3">
         <f t="shared" si="37"/>
-        <v>195482.04242380717</v>
+        <v>229960.24910799434</v>
       </c>
       <c r="AX14" s="3">
         <f t="shared" si="37"/>
-        <v>191572.40157533102</v>
+        <v>227660.6466169144</v>
       </c>
       <c r="AY14" s="3">
         <f t="shared" si="37"/>
-        <v>187740.95354382441</v>
+        <v>225384.04015074525</v>
       </c>
       <c r="AZ14" s="3">
         <f t="shared" si="37"/>
-        <v>183986.13447294792</v>
+        <v>223130.1997492378</v>
       </c>
       <c r="BA14" s="3">
         <f t="shared" si="37"/>
-        <v>180306.41178348896</v>
+        <v>220898.89775174542</v>
       </c>
       <c r="BB14" s="3">
         <f t="shared" si="37"/>
-        <v>176700.28354781918</v>
+        <v>218689.90877422795</v>
       </c>
       <c r="BC14" s="3">
         <f t="shared" si="37"/>
-        <v>173166.27787686279</v>
+        <v>216503.00968648566</v>
       </c>
       <c r="BD14" s="3">
         <f t="shared" si="37"/>
-        <v>169702.95231932553</v>
+        <v>214337.97958962081</v>
       </c>
       <c r="BE14" s="3">
         <f t="shared" si="37"/>
-        <v>166308.89327293902</v>
+        <v>212194.5997937246</v>
       </c>
       <c r="BF14" s="3">
         <f t="shared" si="37"/>
-        <v>162982.71540748022</v>
+        <v>210072.65379578734</v>
       </c>
       <c r="BG14" s="3">
         <f t="shared" si="37"/>
-        <v>159723.0610993306</v>
+        <v>207971.92725782946</v>
       </c>
       <c r="BH14" s="3">
         <f t="shared" si="37"/>
-        <v>156528.59987734398</v>
+        <v>205892.20798525115</v>
       </c>
       <c r="BI14" s="3">
         <f t="shared" si="37"/>
-        <v>153398.0278797971</v>
+        <v>203833.28590539863</v>
       </c>
       <c r="BJ14" s="3">
         <f t="shared" si="37"/>
-        <v>150330.06732220115</v>
+        <v>201794.95304634466</v>
       </c>
       <c r="BK14" s="3">
         <f t="shared" si="37"/>
-        <v>147323.46597575714</v>
+        <v>199777.0035158812</v>
       </c>
       <c r="BL14" s="3">
         <f t="shared" si="37"/>
-        <v>144376.996656242</v>
+        <v>197779.23348072238</v>
       </c>
       <c r="BM14" s="3">
         <f t="shared" si="37"/>
-        <v>141489.45672311715</v>
+        <v>195801.44114591516</v>
       </c>
     </row>
     <row r="15" spans="1:65" x14ac:dyDescent="0.2">
@@ -2351,8 +2417,12 @@
         <v>6.5864661654135341</v>
       </c>
       <c r="O15" s="4">
-        <f t="shared" ref="N15:O15" si="40">+O14/O16</f>
+        <f t="shared" ref="O15" si="40">+O14/O16</f>
         <v>7.2823669579030978</v>
+      </c>
+      <c r="P15" s="2">
+        <f>+P14/P16</f>
+        <v>1.0762812872467222</v>
       </c>
       <c r="U15" s="2" t="s">
         <v>33</v>
@@ -2443,11 +2513,14 @@
       <c r="O16" s="2">
         <v>2518</v>
       </c>
+      <c r="P16" s="2">
+        <v>2517</v>
+      </c>
       <c r="U16" s="2" t="s">
         <v>34</v>
       </c>
       <c r="V16" s="5">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="X16" s="2" t="s">
         <v>9</v>
@@ -2500,883 +2573,918 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:33" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:33" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="7">
         <f t="shared" ref="F18:H18" si="44">+F5/B5-1</f>
         <v>2.8945806510523697E-2</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="7">
         <f t="shared" si="44"/>
         <v>0.1025814642403724</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="7">
         <f t="shared" si="44"/>
         <v>0.26993363033002993</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="7">
         <f>+I5/E5-1</f>
         <v>0.36035922615300686</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="7">
         <f t="shared" ref="J18:K18" si="45">+J5/F5-1</f>
         <v>0.32293561698540185</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="7">
         <f t="shared" si="45"/>
         <v>0.21912182390419899</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18" s="7">
         <f t="shared" ref="L18:O18" si="46">+L5/H5-1</f>
         <v>0.18893184421534936</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="7">
         <f t="shared" si="46"/>
         <v>0.21995310957551828</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="7">
         <f t="shared" si="46"/>
         <v>0.16525238973670975</v>
       </c>
-      <c r="O18" s="8">
+      <c r="O18" s="7">
         <f t="shared" si="46"/>
         <v>0.22863079683908949</v>
       </c>
-      <c r="U18" s="8" t="s">
+      <c r="P18" s="7">
+        <f t="shared" ref="P18" si="47">+P5/L5-1</f>
+        <v>0.26561088697537194</v>
+      </c>
+      <c r="U18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="V18" s="10">
+      <c r="V18" s="9">
         <f>NPV(V17,Y14:BM14)</f>
-        <v>2226152.2745844992</v>
-      </c>
-      <c r="Y18" s="8" t="s">
+        <v>2389398.2515990245</v>
+      </c>
+      <c r="Y18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="Z18" s="8">
+      <c r="Z18" s="7">
         <f>+Z3/Y3-1</f>
         <v>0.15686610810486323</v>
       </c>
-      <c r="AA18" s="8">
+      <c r="AA18" s="7">
         <f>+AA1/Z3-1</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AB18" s="8">
+      <c r="AB18" s="7">
         <f>+AB3/AA1-1</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AC18" s="8">
-        <f t="shared" ref="AA18:AG18" si="47">+AC3/AB3-1</f>
+      <c r="AC18" s="7">
+        <f t="shared" ref="AC18:AG18" si="48">+AC3/AB3-1</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AD18" s="8">
-        <f t="shared" si="47"/>
+      <c r="AD18" s="7">
+        <f t="shared" si="48"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AE18" s="8">
-        <f t="shared" si="47"/>
+      <c r="AE18" s="7">
+        <f t="shared" si="48"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AF18" s="8">
-        <f t="shared" si="47"/>
+      <c r="AF18" s="7">
+        <f t="shared" si="48"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="AG18" s="8">
-        <f t="shared" si="47"/>
+      <c r="AG18" s="7">
+        <f t="shared" si="48"/>
         <v>0.14999999999999991</v>
       </c>
     </row>
-    <row r="19" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F19" s="9">
-        <f t="shared" ref="F19:J19" si="48">+F14/B14-1</f>
+      <c r="F19" s="8">
+        <f t="shared" ref="F19:J19" si="49">+F14/B14-1</f>
         <v>-0.23523107836570667</v>
       </c>
-      <c r="G19" s="9">
-        <f t="shared" si="48"/>
+      <c r="G19" s="8">
+        <f t="shared" si="49"/>
         <v>0.16464782413638401</v>
       </c>
-      <c r="H19" s="9">
-        <f t="shared" si="48"/>
+      <c r="H19" s="8">
+        <f t="shared" si="49"/>
         <v>1.6354948805460752</v>
       </c>
-      <c r="I19" s="9">
-        <f t="shared" si="48"/>
+      <c r="I19" s="8">
+        <f t="shared" si="49"/>
         <v>2.0131126397248496</v>
       </c>
-      <c r="J19" s="9">
-        <f t="shared" si="48"/>
+      <c r="J19" s="8">
+        <f t="shared" si="49"/>
         <v>1.16657908565423</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="8">
         <f>+K14/G14-1</f>
         <v>0.72894196199280947</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L19" s="8">
         <f>+L14/H14-1</f>
         <v>0.3543986877320211</v>
       </c>
-      <c r="M19" s="9">
+      <c r="M19" s="8">
         <f>+M14/I14-1</f>
         <v>0.4866233858885638</v>
       </c>
-      <c r="N19" s="9">
+      <c r="N19" s="8">
         <f>+N14/J14-1</f>
         <v>0.34562211981566815</v>
       </c>
-      <c r="O19" s="9">
+      <c r="O19" s="8">
         <f>+O14/K14-1</f>
         <v>0.36182695878202753</v>
       </c>
-      <c r="U19" s="9" t="s">
+      <c r="P19" s="8">
+        <f t="shared" ref="P19" si="50">+P14/L14-1</f>
+        <v>-0.82732024477307498</v>
+      </c>
+      <c r="U19" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="V19" s="11">
+      <c r="V19" s="10">
         <f>+main!L5-main!L6</f>
         <v>18239</v>
       </c>
-      <c r="Y19" s="9" t="s">
+      <c r="Y19" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="Z19" s="9">
+      <c r="Z19" s="8">
         <f>+Z14/Y14-1</f>
         <v>0.6962541488857279</v>
       </c>
-      <c r="AA19" s="9">
-        <f t="shared" ref="AA19:AG19" si="49">+AA14/Z14-1</f>
+      <c r="AA19" s="8">
+        <f t="shared" ref="AA19:AG19" si="51">+AA14/Z14-1</f>
         <v>0.58469584309579825</v>
       </c>
-      <c r="AB19" s="9">
-        <f t="shared" si="49"/>
+      <c r="AB19" s="8">
+        <f t="shared" si="51"/>
         <v>0.21255458627325163</v>
       </c>
-      <c r="AC19" s="9">
-        <f t="shared" si="49"/>
+      <c r="AC19" s="8">
+        <f t="shared" si="51"/>
         <v>0.38085365498843982</v>
       </c>
-      <c r="AD19" s="9">
-        <f t="shared" si="49"/>
+      <c r="AD19" s="8">
+        <f t="shared" si="51"/>
         <v>0.33691815955502991</v>
       </c>
-      <c r="AE19" s="9">
-        <f t="shared" si="49"/>
+      <c r="AE19" s="8">
+        <f t="shared" si="51"/>
         <v>0.31085435221418023</v>
       </c>
-      <c r="AF19" s="9">
-        <f t="shared" si="49"/>
+      <c r="AF19" s="8">
+        <f t="shared" si="51"/>
         <v>0.21801028427342239</v>
       </c>
-      <c r="AG19" s="9">
-        <f t="shared" si="49"/>
+      <c r="AG19" s="8">
+        <f t="shared" si="51"/>
         <v>0.21178167296172035</v>
       </c>
     </row>
-    <row r="20" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="U20" s="9" t="s">
+    <row r="20" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U20" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="V20" s="11">
+      <c r="V20" s="10">
         <f>+V18-V19</f>
-        <v>2207913.2745844992</v>
-      </c>
-    </row>
-    <row r="21" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="9">
-        <f t="shared" ref="B21:J21" si="50">+B5/B3</f>
+        <v>2371159.2515990245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="8">
+        <f t="shared" ref="B21:J21" si="52">+B5/B3</f>
         <v>0.78482872294682526</v>
       </c>
-      <c r="C21" s="9">
-        <f t="shared" si="50"/>
+      <c r="C21" s="8">
+        <f t="shared" si="52"/>
         <v>0.81985982929706469</v>
       </c>
-      <c r="D21" s="9">
-        <f t="shared" si="50"/>
+      <c r="D21" s="8">
+        <f t="shared" si="52"/>
         <v>0.79375045103557773</v>
       </c>
-      <c r="E21" s="9">
-        <f t="shared" si="50"/>
+      <c r="E21" s="8">
+        <f t="shared" si="52"/>
         <v>0.74083631276231932</v>
       </c>
-      <c r="F21" s="9">
-        <f t="shared" si="50"/>
+      <c r="F21" s="8">
+        <f t="shared" si="52"/>
         <v>0.7867690696456624</v>
       </c>
-      <c r="G21" s="9">
-        <f t="shared" si="50"/>
+      <c r="G21" s="8">
+        <f t="shared" si="52"/>
         <v>0.81421294415450485</v>
       </c>
-      <c r="H21" s="9">
-        <f t="shared" si="50"/>
+      <c r="H21" s="8">
+        <f t="shared" si="52"/>
         <v>0.81813389562467054</v>
       </c>
-      <c r="I21" s="9">
-        <f t="shared" si="50"/>
+      <c r="I21" s="8">
+        <f t="shared" si="52"/>
         <v>0.80815736331679588</v>
       </c>
-      <c r="J21" s="9">
-        <f t="shared" si="50"/>
+      <c r="J21" s="8">
+        <f t="shared" si="52"/>
         <v>0.81785763269784661</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21" s="8">
         <f>+K5/K3</f>
         <v>0.81295590079598679</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21" s="8">
         <f>+L5/L3</f>
         <v>0.81830052477272164</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M21" s="8">
         <f>+M5/M3</f>
         <v>0.81731941717474421</v>
       </c>
-      <c r="N21" s="9">
+      <c r="N21" s="8">
         <f>+N5/N3</f>
         <v>0.82105213404546962</v>
       </c>
-      <c r="O21" s="9">
+      <c r="O21" s="8">
         <f>+O5/O3</f>
         <v>0.82130229817324696</v>
       </c>
-      <c r="U21" s="9" t="s">
+      <c r="P21" s="8">
+        <f t="shared" ref="P21" si="53">+P5/P3</f>
+        <v>0.82034268763904605</v>
+      </c>
+      <c r="U21" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="V21" s="11">
+      <c r="V21" s="10">
         <f>+V20/main!L3</f>
-        <v>876.85197560941197</v>
-      </c>
-      <c r="Y21" s="9">
-        <f t="shared" ref="Y21:AF21" si="51">+Y5/Y3</f>
+        <v>941.68357887173329</v>
+      </c>
+      <c r="Y21" s="8">
+        <f t="shared" ref="Y21:AF21" si="54">+Y5/Y3</f>
         <v>0.78347297378418479</v>
       </c>
-      <c r="Z21" s="9">
-        <f t="shared" si="51"/>
+      <c r="Z21" s="8">
+        <f t="shared" si="54"/>
         <v>0.80757740861817184</v>
       </c>
-      <c r="AA21" s="9">
+      <c r="AA21" s="8">
         <f>+AA5/AA1</f>
         <v>0.82985547426137196</v>
       </c>
-      <c r="AB21" s="9">
-        <f t="shared" si="51"/>
+      <c r="AB21" s="8">
+        <f t="shared" si="54"/>
         <v>0.82920499724489305</v>
       </c>
-      <c r="AC21" s="9">
-        <f t="shared" si="51"/>
+      <c r="AC21" s="8">
+        <f t="shared" si="54"/>
         <v>0.84343791414115199</v>
       </c>
-      <c r="AD21" s="9">
-        <f t="shared" si="51"/>
+      <c r="AD21" s="8">
+        <f t="shared" si="54"/>
         <v>0.85648475462938922</v>
       </c>
-      <c r="AE21" s="9">
-        <f t="shared" si="51"/>
+      <c r="AE21" s="8">
+        <f t="shared" si="54"/>
         <v>0.86844435841027356</v>
       </c>
-      <c r="AF21" s="9">
-        <f t="shared" si="51"/>
+      <c r="AF21" s="8">
+        <f t="shared" si="54"/>
         <v>0.87416416891417459</v>
       </c>
-      <c r="AG21" s="9">
-        <f t="shared" ref="AG21" si="52">+AG5/AG3</f>
+      <c r="AG21" s="8">
+        <f t="shared" ref="AG21" si="55">+AG5/AG3</f>
         <v>0.87963529200486268</v>
       </c>
     </row>
-    <row r="22" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="9">
-        <f t="shared" ref="B22:J22" si="53">+B6/B3</f>
+      <c r="B22" s="8">
+        <f t="shared" ref="B22:J22" si="56">+B6/B3</f>
         <v>0.27615737422961156</v>
       </c>
-      <c r="C22" s="9">
-        <f t="shared" si="53"/>
+      <c r="C22" s="8">
+        <f t="shared" si="56"/>
         <v>0.30150579418499757</v>
       </c>
-      <c r="D22" s="9">
-        <f t="shared" si="53"/>
+      <c r="D22" s="8">
+        <f t="shared" si="56"/>
         <v>0.33087969979071952</v>
       </c>
-      <c r="E22" s="9">
-        <f t="shared" si="53"/>
+      <c r="E22" s="8">
+        <f t="shared" si="56"/>
         <v>0.30377739779263174</v>
       </c>
-      <c r="F22" s="9">
-        <f t="shared" si="53"/>
+      <c r="F22" s="8">
+        <f t="shared" si="56"/>
         <v>0.32749170884971202</v>
       </c>
-      <c r="G22" s="9">
-        <f t="shared" si="53"/>
+      <c r="G22" s="8">
+        <f t="shared" si="56"/>
         <v>0.29200912528516515</v>
       </c>
-      <c r="H22" s="9">
-        <f t="shared" si="53"/>
+      <c r="H22" s="8">
+        <f t="shared" si="56"/>
         <v>0.27063199203420607</v>
       </c>
-      <c r="I22" s="9">
-        <f t="shared" si="53"/>
+      <c r="I22" s="8">
+        <f t="shared" si="56"/>
         <v>0.26219740220887039</v>
       </c>
-      <c r="J22" s="9">
-        <f t="shared" si="53"/>
+      <c r="J22" s="8">
+        <f t="shared" si="56"/>
         <v>0.27370731038266355</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K22" s="8">
         <f>+K6/K3</f>
         <v>0.26968851577896652</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L22" s="8">
         <f>+L6/L3</f>
         <v>0.27537017418512405</v>
       </c>
-      <c r="M22" s="9">
+      <c r="M22" s="8">
         <f>+M6/M3</f>
         <v>0.25173090833936135</v>
       </c>
-      <c r="N22" s="9">
+      <c r="N22" s="8">
         <f>+N6/N3</f>
         <v>0.28713900836602541</v>
       </c>
-      <c r="O22" s="9">
+      <c r="O22" s="8">
         <f>+O6/O3</f>
         <v>0.27237141173499452</v>
       </c>
-      <c r="U22" s="9" t="s">
+      <c r="P22" s="8">
+        <f t="shared" ref="P22" si="57">+P6/P3</f>
+        <v>0.29553881581515162</v>
+      </c>
+      <c r="U22" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="V22" s="11">
-        <f>+main!L2</f>
-        <v>777</v>
-      </c>
-      <c r="Y22" s="9">
-        <f t="shared" ref="Y22:AF22" si="54">+Y6/Y3</f>
+      <c r="V22" s="10">
+        <v>646</v>
+      </c>
+      <c r="Y22" s="8">
+        <f t="shared" ref="Y22:AF22" si="58">+Y6/Y3</f>
         <v>0.30304693462768739</v>
       </c>
-      <c r="Z22" s="9">
-        <f t="shared" si="54"/>
+      <c r="Z22" s="8">
+        <f t="shared" si="58"/>
         <v>0.28526845612708579</v>
       </c>
-      <c r="AA22" s="9">
+      <c r="AA22" s="8">
         <f>+AA6/AA1</f>
         <v>0.27101355809074806</v>
       </c>
-      <c r="AB22" s="9">
-        <f t="shared" si="54"/>
+      <c r="AB22" s="8">
+        <f t="shared" si="58"/>
         <v>0.23713686332940456</v>
       </c>
-      <c r="AC22" s="9">
-        <f t="shared" si="54"/>
+      <c r="AC22" s="8">
+        <f t="shared" si="58"/>
         <v>0.20749475541322898</v>
       </c>
-      <c r="AD22" s="9">
-        <f t="shared" si="54"/>
+      <c r="AD22" s="8">
+        <f t="shared" si="58"/>
         <v>0.18155791098657537</v>
       </c>
-      <c r="AE22" s="9">
-        <f t="shared" si="54"/>
+      <c r="AE22" s="8">
+        <f t="shared" si="58"/>
         <v>0.15886317211325346</v>
       </c>
-      <c r="AF22" s="9">
-        <f t="shared" si="54"/>
+      <c r="AF22" s="8">
+        <f t="shared" si="58"/>
         <v>0.14504898323384013</v>
       </c>
-      <c r="AG22" s="9">
-        <f t="shared" ref="AG22" si="55">+AG6/AG3</f>
+      <c r="AG22" s="8">
+        <f t="shared" ref="AG22" si="59">+AG6/AG3</f>
         <v>0.13243602817002795</v>
       </c>
     </row>
-    <row r="23" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
+    <row r="23" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="9">
-        <f t="shared" ref="B23:J23" si="56">+B7/B3</f>
+      <c r="B23" s="8">
+        <f t="shared" ref="B23:J23" si="60">+B7/B3</f>
         <v>0.11867564855955282</v>
       </c>
-      <c r="C23" s="9">
-        <f t="shared" si="56"/>
+      <c r="C23" s="8">
+        <f t="shared" si="60"/>
         <v>0.12473110818125044</v>
       </c>
-      <c r="D23" s="9">
-        <f t="shared" si="56"/>
+      <c r="D23" s="8">
+        <f t="shared" si="60"/>
         <v>0.13639315869235766</v>
       </c>
-      <c r="E23" s="9">
-        <f t="shared" si="56"/>
+      <c r="E23" s="8">
+        <f t="shared" si="60"/>
         <v>0.142204259288046</v>
       </c>
-      <c r="F23" s="9">
-        <f t="shared" si="56"/>
+      <c r="F23" s="8">
+        <f t="shared" si="60"/>
         <v>0.10626636411241054</v>
       </c>
-      <c r="G23" s="9">
-        <f t="shared" si="56"/>
+      <c r="G23" s="8">
+        <f t="shared" si="60"/>
         <v>9.8565580174380454E-2</v>
       </c>
-      <c r="H23" s="9">
-        <f t="shared" si="56"/>
+      <c r="H23" s="8">
+        <f t="shared" si="60"/>
         <v>8.4255842558425581E-2</v>
       </c>
-      <c r="I23" s="9">
-        <f t="shared" si="56"/>
+      <c r="I23" s="8">
+        <f t="shared" si="60"/>
         <v>8.0426815586746775E-2</v>
       </c>
-      <c r="J23" s="9">
-        <f t="shared" si="56"/>
+      <c r="J23" s="8">
+        <f t="shared" si="60"/>
         <v>7.0333287614867651E-2</v>
       </c>
-      <c r="K23" s="9">
+      <c r="K23" s="8">
         <f>+K7/K3</f>
         <v>6.9642445803793099E-2</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L23" s="8">
         <f>+L7/L3</f>
         <v>6.9526226317475182E-2</v>
       </c>
-      <c r="M23" s="9">
+      <c r="M23" s="8">
         <f>+M7/M3</f>
         <v>6.6962901725741444E-2</v>
       </c>
-      <c r="N23" s="9">
+      <c r="N23" s="8">
         <f>+N7/N3</f>
         <v>6.5155740416883295E-2</v>
       </c>
-      <c r="O23" s="9">
+      <c r="O23" s="8">
         <f>+O7/O3</f>
         <v>6.269467126862531E-2</v>
       </c>
-      <c r="U23" s="9" t="s">
+      <c r="P23" s="8">
+        <f t="shared" ref="P23" si="61">+P7/P3</f>
+        <v>5.5520861793060379E-2</v>
+      </c>
+      <c r="U23" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="V23" s="12">
+      <c r="V23" s="8">
         <f>+V21/V22-1</f>
-        <v>0.12850962111893427</v>
-      </c>
-      <c r="Y23" s="9">
-        <f t="shared" ref="Y23:AF23" si="57">+Y7/Y3</f>
+        <v>0.45771451837729615</v>
+      </c>
+      <c r="Y23" s="8">
+        <f t="shared" ref="Y23:AF23" si="62">+Y7/Y3</f>
         <v>0.13087326021147597</v>
       </c>
-      <c r="Z23" s="9">
-        <f t="shared" si="57"/>
+      <c r="Z23" s="8">
+        <f t="shared" si="62"/>
         <v>9.1185387802907317E-2</v>
       </c>
-      <c r="AA23" s="9">
+      <c r="AA23" s="8">
         <f>+AA7/AA1</f>
         <v>7.0094612592444344E-2</v>
       </c>
-      <c r="AB23" s="9">
-        <f t="shared" si="57"/>
+      <c r="AB23" s="8">
+        <f t="shared" si="62"/>
         <v>6.0164542475181396E-2</v>
       </c>
-      <c r="AC23" s="9">
-        <f t="shared" si="57"/>
+      <c r="AC23" s="8">
+        <f t="shared" si="62"/>
         <v>5.1641232291197374E-2</v>
       </c>
-      <c r="AD23" s="9">
-        <f t="shared" si="57"/>
+      <c r="AD23" s="8">
+        <f t="shared" si="62"/>
         <v>4.4325391049944408E-2</v>
       </c>
-      <c r="AE23" s="9">
-        <f t="shared" si="57"/>
+      <c r="AE23" s="8">
+        <f t="shared" si="62"/>
         <v>3.8045960651202283E-2</v>
       </c>
-      <c r="AF23" s="9">
-        <f t="shared" si="57"/>
+      <c r="AF23" s="8">
+        <f t="shared" si="62"/>
         <v>3.4075947365859442E-2</v>
       </c>
-      <c r="AG23" s="9">
-        <f t="shared" ref="AG23" si="58">+AG7/AG3</f>
+      <c r="AG23" s="8">
+        <f t="shared" ref="AG23" si="63">+AG7/AG3</f>
         <v>3.0520196336378456E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
+    <row r="24" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="9">
-        <f t="shared" ref="B24:J24" si="59">+B8/B3</f>
+      <c r="B24" s="8">
+        <f t="shared" ref="B24:J24" si="64">+B8/B3</f>
         <v>8.4563566002579901E-2</v>
       </c>
-      <c r="C24" s="9">
-        <f t="shared" si="59"/>
+      <c r="C24" s="8">
+        <f t="shared" si="64"/>
         <v>0.1036361113038651</v>
       </c>
-      <c r="D24" s="9">
-        <f t="shared" si="59"/>
+      <c r="D24" s="8">
+        <f t="shared" si="64"/>
         <v>0.12210435159125352</v>
       </c>
-      <c r="E24" s="9">
-        <f t="shared" si="59"/>
+      <c r="E24" s="8">
+        <f t="shared" si="64"/>
         <v>9.5911705269703093E-2</v>
       </c>
-      <c r="F24" s="9">
-        <f t="shared" si="59"/>
+      <c r="F24" s="8">
+        <f t="shared" si="64"/>
         <v>0.10071565718275441</v>
       </c>
-      <c r="G24" s="9">
-        <f t="shared" si="59"/>
+      <c r="G24" s="8">
+        <f t="shared" si="64"/>
         <v>0.13012906653332917</v>
       </c>
-      <c r="H24" s="9">
-        <f t="shared" si="59"/>
+      <c r="H24" s="8">
+        <f t="shared" si="64"/>
         <v>6.062203479177649E-2</v>
       </c>
-      <c r="I24" s="9">
-        <f t="shared" si="59"/>
+      <c r="I24" s="8">
+        <f t="shared" si="64"/>
         <v>5.7066640073795215E-2</v>
       </c>
-      <c r="J24" s="9">
-        <f t="shared" si="59"/>
+      <c r="J24" s="8">
+        <f t="shared" si="64"/>
         <v>9.4774379371828282E-2</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K24" s="8">
         <f>+K8/K3</f>
         <v>9.3624427324614165E-2</v>
       </c>
-      <c r="L24" s="9">
+      <c r="L24" s="8">
         <f>+L8/L3</f>
         <v>4.5948409667643943E-2</v>
       </c>
-      <c r="M24" s="9">
+      <c r="M24" s="8">
         <f>+M8/M3</f>
         <v>1.5728014880644826E-2</v>
       </c>
-      <c r="N24" s="9">
+      <c r="N24" s="8">
         <f>+N8/N3</f>
         <v>5.3882875643994896E-2</v>
       </c>
-      <c r="O24" s="9">
+      <c r="O24" s="8">
         <f>+O8/O3</f>
         <v>5.6044279821533802E-2</v>
       </c>
-      <c r="Y24" s="9">
-        <f t="shared" ref="Y24:AF24" si="60">+Y8/Y3</f>
+      <c r="P24" s="8">
+        <f t="shared" ref="P24" si="65">+P8/P3</f>
+        <v>6.8537527809218998E-2</v>
+      </c>
+      <c r="Y24" s="8">
+        <f t="shared" ref="Y24:AF24" si="66">+Y8/Y3</f>
         <v>0.10133008601394404</v>
       </c>
-      <c r="Z24" s="9">
-        <f t="shared" si="60"/>
+      <c r="Z24" s="8">
+        <f t="shared" si="66"/>
         <v>8.4565718563983955E-2</v>
       </c>
-      <c r="AA24" s="9">
+      <c r="AA24" s="8">
         <f>+AA8/AA1</f>
         <v>6.0161402312312984E-2</v>
       </c>
-      <c r="AB24" s="9">
-        <f t="shared" si="60"/>
+      <c r="AB24" s="8">
+        <f t="shared" si="66"/>
         <v>5.0134501926927491E-2</v>
       </c>
-      <c r="AC24" s="9">
-        <f t="shared" si="60"/>
+      <c r="AC24" s="8">
+        <f t="shared" si="66"/>
         <v>4.1778751605772914E-2</v>
       </c>
-      <c r="AD24" s="9">
-        <f t="shared" si="60"/>
+      <c r="AD24" s="8">
+        <f t="shared" si="66"/>
         <v>3.4815626338144091E-2</v>
       </c>
-      <c r="AE24" s="9">
-        <f t="shared" si="60"/>
+      <c r="AE24" s="8">
+        <f t="shared" si="66"/>
         <v>2.901302194845341E-2</v>
       </c>
-      <c r="AF24" s="9">
-        <f t="shared" si="60"/>
+      <c r="AF24" s="8">
+        <f t="shared" si="66"/>
         <v>2.5228714737785575E-2</v>
       </c>
-      <c r="AG24" s="9">
-        <f t="shared" ref="AG24" si="61">+AG8/AG3</f>
+      <c r="AG24" s="8">
+        <f t="shared" ref="AG24" si="67">+AG8/AG3</f>
         <v>2.1938012815465719E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
+    <row r="25" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="9">
-        <f t="shared" ref="B25:J25" si="62">+B10/B3</f>
+      <c r="B25" s="8">
+        <f t="shared" ref="B25:J25" si="68">+B10/B3</f>
         <v>0.30543213415508097</v>
       </c>
-      <c r="C25" s="9">
-        <f t="shared" si="62"/>
+      <c r="C25" s="8">
+        <f t="shared" si="68"/>
         <v>0.28998681562695161</v>
       </c>
-      <c r="D25" s="9">
-        <f t="shared" si="62"/>
+      <c r="D25" s="8">
+        <f t="shared" si="68"/>
         <v>0.20437324096124701</v>
       </c>
-      <c r="E25" s="9">
-        <f t="shared" si="62"/>
+      <c r="E25" s="8">
+        <f t="shared" si="68"/>
         <v>0.19894295041193844</v>
       </c>
-      <c r="F25" s="9">
-        <f t="shared" si="62"/>
+      <c r="F25" s="8">
+        <f t="shared" si="68"/>
         <v>0.25229533950078548</v>
       </c>
-      <c r="G25" s="9">
-        <f t="shared" si="62"/>
+      <c r="G25" s="8">
+        <f t="shared" si="68"/>
         <v>0.29350917216163003</v>
       </c>
-      <c r="H25" s="9">
-        <f t="shared" si="62"/>
+      <c r="H25" s="8">
+        <f t="shared" si="68"/>
         <v>0.40262402624026239</v>
       </c>
-      <c r="I25" s="9">
-        <f t="shared" si="62"/>
+      <c r="I25" s="8">
+        <f t="shared" si="68"/>
         <v>0.4084665054473835</v>
       </c>
-      <c r="J25" s="9">
-        <f t="shared" si="62"/>
+      <c r="J25" s="8">
+        <f t="shared" si="68"/>
         <v>0.37904265532848719</v>
       </c>
-      <c r="K25" s="9">
+      <c r="K25" s="8">
         <f>+K10/K3</f>
         <v>0.38000051188861306</v>
       </c>
-      <c r="L25" s="9">
+      <c r="L25" s="8">
         <f>+L10/L3</f>
         <v>0.4274557146024785</v>
       </c>
-      <c r="M25" s="9">
+      <c r="M25" s="8">
         <f>+M10/M3</f>
         <v>0.48289759222899659</v>
       </c>
-      <c r="N25" s="9">
+      <c r="N25" s="8">
         <f>+N10/N3</f>
         <v>0.41487450961856598</v>
       </c>
-      <c r="O25" s="9">
+      <c r="O25" s="8">
         <f>+O10/O3</f>
         <v>0.43019193534809325</v>
       </c>
-      <c r="Y25" s="9">
-        <f t="shared" ref="Y25:AF25" si="63">+Y10/Y3</f>
+      <c r="P25" s="8">
+        <f t="shared" ref="P25" si="69">+P10/P3</f>
+        <v>0.4007454822216151</v>
+      </c>
+      <c r="Y25" s="8">
+        <f t="shared" ref="Y25:AF25" si="70">+Y10/Y3</f>
         <v>0.24822269293107735</v>
       </c>
-      <c r="Z25" s="9">
-        <f t="shared" si="63"/>
+      <c r="Z25" s="8">
+        <f t="shared" si="70"/>
         <v>0.34655784612419477</v>
       </c>
-      <c r="AA25" s="9">
+      <c r="AA25" s="8">
         <f>+AA10/AA1</f>
         <v>0.4285859012658666</v>
       </c>
-      <c r="AB25" s="9">
-        <f t="shared" si="63"/>
+      <c r="AB25" s="8">
+        <f t="shared" si="70"/>
         <v>0.48176908951337966</v>
       </c>
-      <c r="AC25" s="9">
-        <f t="shared" si="63"/>
+      <c r="AC25" s="8">
+        <f t="shared" si="70"/>
         <v>0.54252317483095269</v>
       </c>
-      <c r="AD25" s="9">
-        <f t="shared" si="63"/>
+      <c r="AD25" s="8">
+        <f t="shared" si="70"/>
         <v>0.59578582625472543</v>
       </c>
-      <c r="AE25" s="9">
-        <f t="shared" si="63"/>
+      <c r="AE25" s="8">
+        <f t="shared" si="70"/>
         <v>0.64252220369736446</v>
       </c>
-      <c r="AF25" s="9">
-        <f t="shared" si="63"/>
+      <c r="AF25" s="8">
+        <f t="shared" si="70"/>
         <v>0.66981052357668946</v>
       </c>
-      <c r="AG25" s="9">
-        <f t="shared" ref="AG25" si="64">+AG10/AG3</f>
+      <c r="AG25" s="8">
+        <f t="shared" ref="AG25" si="71">+AG10/AG3</f>
         <v>0.69474105468299052</v>
       </c>
     </row>
-    <row r="26" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
+    <row r="26" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="9">
-        <f t="shared" ref="B26:J26" si="65">+B13/B12</f>
+      <c r="B26" s="8">
+        <f t="shared" ref="B26:J26" si="72">+B13/B12</f>
         <v>0.1619892231701841</v>
       </c>
-      <c r="C26" s="9">
-        <f t="shared" si="65"/>
+      <c r="C26" s="8">
+        <f t="shared" si="72"/>
         <v>0.18311751771316884</v>
       </c>
-      <c r="D26" s="9">
-        <f t="shared" si="65"/>
+      <c r="D26" s="8">
+        <f t="shared" si="72"/>
         <v>0.21180057388809181</v>
       </c>
-      <c r="E26" s="9">
-        <f t="shared" si="65"/>
+      <c r="E26" s="8">
+        <f t="shared" si="72"/>
         <v>0.24345422019840623</v>
       </c>
-      <c r="F26" s="9">
-        <f t="shared" si="65"/>
+      <c r="F26" s="8">
+        <f t="shared" si="72"/>
         <v>0.21869440262761736</v>
       </c>
-      <c r="G26" s="9">
-        <f t="shared" si="65"/>
+      <c r="G26" s="8">
+        <f t="shared" si="72"/>
         <v>0.16194985472936618</v>
       </c>
-      <c r="H26" s="9">
-        <f t="shared" si="65"/>
+      <c r="H26" s="8">
+        <f t="shared" si="72"/>
         <v>0.1738231098430813</v>
       </c>
-      <c r="I26" s="9">
-        <f t="shared" si="65"/>
+      <c r="I26" s="8">
+        <f t="shared" si="72"/>
         <v>0.16605188005711566</v>
       </c>
-      <c r="J26" s="9">
-        <f t="shared" si="65"/>
+      <c r="J26" s="8">
+        <f t="shared" si="72"/>
         <v>0.12789959811041388</v>
       </c>
-      <c r="K26" s="9">
+      <c r="K26" s="8">
         <f>+K13/K12</f>
         <v>0.10863233152389778</v>
       </c>
-      <c r="L26" s="9">
+      <c r="L26" s="8">
         <f>+L13/L12</f>
         <v>0.11973964762652901</v>
       </c>
-      <c r="M26" s="9">
+      <c r="M26" s="8">
         <f>+M13/M12</f>
         <v>0.11527193988027003</v>
       </c>
-      <c r="N26" s="9">
+      <c r="N26" s="8">
         <f>+N13/N12</f>
         <v>9.4549015341094556E-2</v>
       </c>
-      <c r="O26" s="9">
+      <c r="O26" s="8">
         <f>+O13/O12</f>
         <v>0.10699327943897925</v>
       </c>
-      <c r="Y26" s="9">
-        <f t="shared" ref="Y26:AF26" si="66">+Y13/Y12</f>
+      <c r="P26" s="8">
+        <f t="shared" ref="P26" si="73">+P13/P12</f>
+        <v>0.87494806813460735</v>
+      </c>
+      <c r="Y26" s="8">
+        <f t="shared" ref="Y26:AF26" si="74">+Y13/Y12</f>
         <v>0.19501023630243935</v>
       </c>
-      <c r="Z26" s="9">
-        <f t="shared" si="66"/>
+      <c r="Z26" s="8">
+        <f t="shared" si="74"/>
         <v>0.17471855443517942</v>
       </c>
-      <c r="AA26" s="9">
-        <f t="shared" si="66"/>
+      <c r="AA26" s="8">
+        <f t="shared" si="74"/>
         <v>0.11751386844786596</v>
       </c>
-      <c r="AB26" s="9">
-        <f t="shared" si="66"/>
+      <c r="AB26" s="8">
+        <f t="shared" si="74"/>
         <v>0.19999999999999998</v>
       </c>
-      <c r="AC26" s="9">
-        <f t="shared" si="66"/>
+      <c r="AC26" s="8">
+        <f t="shared" si="74"/>
         <v>0.2</v>
       </c>
-      <c r="AD26" s="9">
-        <f t="shared" si="66"/>
+      <c r="AD26" s="8">
+        <f t="shared" si="74"/>
         <v>0.2</v>
       </c>
-      <c r="AE26" s="9">
-        <f t="shared" si="66"/>
+      <c r="AE26" s="8">
+        <f t="shared" si="74"/>
         <v>0.2</v>
       </c>
-      <c r="AF26" s="9">
-        <f t="shared" si="66"/>
+      <c r="AF26" s="8">
+        <f t="shared" si="74"/>
         <v>0.2</v>
       </c>
-      <c r="AG26" s="9">
-        <f t="shared" ref="AG26" si="67">+AG13/AG12</f>
+      <c r="AG26" s="8">
+        <f t="shared" ref="AG26" si="75">+AG13/AG12</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="27" spans="1:33" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:33" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="8">
-        <f t="shared" ref="B27:K27" si="68">+B14/B3</f>
+      <c r="B27" s="7">
+        <f t="shared" ref="B27:K27" si="76">+B14/B3</f>
         <v>0.26748602551239786</v>
       </c>
-      <c r="C27" s="8">
-        <f t="shared" si="68"/>
+      <c r="C27" s="7">
+        <f t="shared" si="76"/>
         <v>0.23201026993269031</v>
       </c>
-      <c r="D27" s="8">
-        <f t="shared" si="68"/>
+      <c r="D27" s="7">
+        <f t="shared" si="76"/>
         <v>0.15858410911452694</v>
       </c>
-      <c r="E27" s="8">
-        <f t="shared" si="68"/>
+      <c r="E27" s="7">
+        <f t="shared" si="76"/>
         <v>0.1446292554018343</v>
       </c>
-      <c r="F27" s="8">
-        <f t="shared" si="68"/>
+      <c r="F27" s="7">
+        <f t="shared" si="76"/>
         <v>0.19930179787048349</v>
       </c>
-      <c r="G27" s="8">
-        <f t="shared" si="68"/>
+      <c r="G27" s="7">
+        <f t="shared" si="76"/>
         <v>0.24338260570642833</v>
       </c>
-      <c r="H27" s="8">
-        <f t="shared" si="68"/>
+      <c r="H27" s="7">
+        <f t="shared" si="76"/>
         <v>0.33921982076963625</v>
       </c>
-      <c r="I27" s="8">
-        <f t="shared" si="68"/>
+      <c r="I27" s="7">
+        <f t="shared" si="76"/>
         <v>0.34945526164892421</v>
       </c>
-      <c r="J27" s="8">
-        <f t="shared" si="68"/>
+      <c r="J27" s="7">
+        <f t="shared" si="76"/>
         <v>0.33929502125908656</v>
       </c>
-      <c r="K27" s="8">
-        <f t="shared" si="68"/>
+      <c r="K27" s="7">
+        <f t="shared" si="76"/>
         <v>0.34462900872770086</v>
       </c>
-      <c r="L27" s="8">
-        <f t="shared" ref="L27:M27" si="69">+L14/L3</f>
+      <c r="L27" s="7">
+        <f t="shared" ref="L27:M27" si="77">+L14/L3</f>
         <v>0.38650865998176848</v>
       </c>
-      <c r="M27" s="8">
-        <f t="shared" si="69"/>
+      <c r="M27" s="7">
+        <f t="shared" si="77"/>
         <v>0.43067066239537044</v>
       </c>
-      <c r="N27" s="8">
-        <f t="shared" ref="N27:O27" si="70">+N14/N3</f>
+      <c r="N27" s="7">
+        <f t="shared" ref="N27:O27" si="78">+N14/N3</f>
         <v>0.39334499220116276</v>
       </c>
-      <c r="O27" s="8">
-        <f t="shared" si="70"/>
+      <c r="O27" s="7">
+        <f t="shared" si="78"/>
         <v>0.38591211381429413</v>
       </c>
-      <c r="Y27" s="8">
-        <f t="shared" ref="Y27:AF27" si="71">+Y14/Y3</f>
+      <c r="P27" s="7">
+        <f t="shared" ref="P27" si="79">+P14/P3</f>
+        <v>5.2866788962179459E-2</v>
+      </c>
+      <c r="Y27" s="7">
+        <f t="shared" ref="Y27:AF27" si="80">+Y14/Y3</f>
         <v>0.19894690804311846</v>
       </c>
-      <c r="Z27" s="8">
-        <f t="shared" si="71"/>
+      <c r="Z27" s="7">
+        <f t="shared" si="80"/>
         <v>0.29170576941609033</v>
       </c>
-      <c r="AA27" s="8">
+      <c r="AA27" s="7">
         <f>+AA14/AA1</f>
         <v>0.3852207668339499</v>
       </c>
-      <c r="AB27" s="8">
-        <f t="shared" si="71"/>
+      <c r="AB27" s="7">
+        <f t="shared" si="80"/>
         <v>0.38925100629350401</v>
       </c>
-      <c r="AC27" s="8">
-        <f t="shared" si="71"/>
+      <c r="AC27" s="7">
+        <f t="shared" si="80"/>
         <v>0.44791556229026103</v>
       </c>
-      <c r="AD27" s="8">
-        <f t="shared" si="71"/>
+      <c r="AD27" s="7">
+        <f t="shared" si="80"/>
         <v>0.49902204097762676</v>
       </c>
-      <c r="AE27" s="8">
-        <f t="shared" si="71"/>
+      <c r="AE27" s="7">
+        <f t="shared" si="80"/>
         <v>0.54512101188860418</v>
       </c>
-      <c r="AF27" s="8">
-        <f t="shared" si="71"/>
+      <c r="AF27" s="7">
+        <f t="shared" si="80"/>
         <v>0.57735912926422128</v>
       </c>
-      <c r="AG27" s="8">
-        <f t="shared" ref="AG27" si="72">+AG14/AG3</f>
+      <c r="AG27" s="7">
+        <f t="shared" ref="AG27" si="81">+AG14/AG3</f>
         <v>0.60837670570393065</v>
       </c>
     </row>
@@ -3395,57 +3503,61 @@
         <v>64</v>
       </c>
       <c r="B33" s="3">
-        <f t="shared" ref="B33:M33" si="73">+B36-B46</f>
+        <f t="shared" ref="B33:K33" si="82">+B36-B46</f>
         <v>0</v>
       </c>
       <c r="C33" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="D33" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="E33" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="F33" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="G33" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="H33" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="I33" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="J33" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="K33" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="M33" s="3">
-        <f t="shared" ref="M33:N33" si="74">+M36-M46</f>
+        <f t="shared" ref="M33:N33" si="83">+M36-M46</f>
         <v>48989</v>
       </c>
       <c r="N33" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="83"/>
         <v>41401</v>
       </c>
       <c r="O33" s="3">
         <f>+O36-O46</f>
         <v>18239</v>
       </c>
+      <c r="P33" s="3">
+        <f>+P36-P46</f>
+        <v>77432</v>
+      </c>
       <c r="X33" s="3" t="s">
         <v>9</v>
       </c>
@@ -3458,79 +3570,79 @@
         <v>80988</v>
       </c>
       <c r="AB33" s="3">
-        <f t="shared" ref="AB33:AR33" si="75">+AA33+AB14</f>
+        <f t="shared" ref="AB33:AR33" si="84">+AA33+AB14</f>
         <v>156602.90399999998</v>
       </c>
       <c r="AC33" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>261016.02055999992</v>
       </c>
       <c r="AD33" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>400607.81218479987</v>
       </c>
       <c r="AE33" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>583592.31976954383</v>
       </c>
       <c r="AF33" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>806469.33187047008</v>
       </c>
       <c r="AG33" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>1076547.6104588402</v>
       </c>
       <c r="AH33" s="3">
-        <f t="shared" si="75"/>
-        <v>1341224.3234754428</v>
+        <f t="shared" si="84"/>
+        <v>1343925.1062613265</v>
       </c>
       <c r="AI33" s="3">
-        <f t="shared" si="75"/>
-        <v>1600607.5022317134</v>
+        <f t="shared" si="84"/>
+        <v>1608628.8271057878</v>
       </c>
       <c r="AJ33" s="3">
-        <f t="shared" si="75"/>
-        <v>1854803.0174128585</v>
+        <f t="shared" si="84"/>
+        <v>1870685.5107418047</v>
       </c>
       <c r="AK33" s="3">
-        <f t="shared" si="75"/>
-        <v>2103914.6222903808</v>
+        <f t="shared" si="84"/>
+        <v>2130121.6275414615</v>
       </c>
       <c r="AL33" s="3">
-        <f t="shared" si="75"/>
-        <v>2348043.9950703527</v>
+        <f t="shared" si="84"/>
+        <v>2386963.3831731216</v>
       </c>
       <c r="AM33" s="3">
-        <f t="shared" si="75"/>
-        <v>2587290.780394725</v>
+        <f t="shared" si="84"/>
+        <v>2641236.7212484651</v>
       </c>
       <c r="AN33" s="3">
-        <f t="shared" si="75"/>
-        <v>2821752.63001261</v>
+        <f t="shared" si="84"/>
+        <v>2892967.3259430551</v>
       </c>
       <c r="AO33" s="3">
-        <f t="shared" si="75"/>
-        <v>3051525.2426381372</v>
+        <f t="shared" si="84"/>
+        <v>3142180.6245906991</v>
       </c>
       <c r="AP33" s="3">
-        <f t="shared" si="75"/>
-        <v>3276702.4030111539</v>
+        <f t="shared" si="84"/>
+        <v>3388901.7902518669</v>
       </c>
       <c r="AQ33" s="3">
-        <f t="shared" si="75"/>
-        <v>3497376.0201767101</v>
+        <f t="shared" si="84"/>
+        <v>3633155.7442564229</v>
       </c>
       <c r="AR33" s="3">
-        <f t="shared" si="75"/>
-        <v>3713636.1649989551</v>
+        <f t="shared" si="84"/>
+        <v>3874967.1587209334</v>
       </c>
     </row>
     <row r="36" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L36" s="7">
+      <c r="L36" s="2">
         <f>43852+27048</f>
         <v>70900</v>
       </c>
@@ -3545,6 +3657,10 @@
       <c r="O36" s="2">
         <f>12005+35066</f>
         <v>47071</v>
+      </c>
+      <c r="P36" s="2">
+        <f>73118+10187+25074</f>
+        <v>108379</v>
       </c>
       <c r="Z36" s="2">
         <v>41862</v>
@@ -3564,16 +3680,16 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
-      <c r="L37" s="7">
+      <c r="L37" s="2">
         <v>14700</v>
       </c>
-      <c r="M37" s="7">
+      <c r="M37" s="2">
         <v>16994</v>
       </c>
-      <c r="N37" s="7">
+      <c r="N37" s="2">
         <v>14514</v>
       </c>
-      <c r="O37" s="7">
+      <c r="O37" s="2">
         <v>16561</v>
       </c>
       <c r="P37" s="3"/>
@@ -3753,19 +3869,22 @@
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
-      <c r="L46" s="7">
+      <c r="L46" s="2">
         <v>28823</v>
       </c>
-      <c r="M46" s="7">
+      <c r="M46" s="2">
         <v>28826</v>
       </c>
-      <c r="N46" s="7">
+      <c r="N46" s="2">
         <v>28829</v>
       </c>
-      <c r="O46" s="7">
+      <c r="O46" s="2">
         <v>28832</v>
       </c>
-      <c r="P46" s="3"/>
+      <c r="P46" s="3">
+        <f>2113+28834</f>
+        <v>30947</v>
+      </c>
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>
@@ -3784,13 +3903,13 @@
       <c r="A47" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L47" s="7">
+      <c r="L47" s="2">
         <v>7656</v>
       </c>
-      <c r="M47" s="7">
+      <c r="M47" s="2">
         <v>7687</v>
       </c>
-      <c r="N47" s="7">
+      <c r="N47" s="2">
         <v>8512</v>
       </c>
       <c r="O47" s="2">
@@ -3804,16 +3923,16 @@
       <c r="A48" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="L48" s="7">
+      <c r="L48" s="2">
         <v>2016</v>
       </c>
-      <c r="M48" s="7">
+      <c r="M48" s="2">
         <v>1942</v>
       </c>
-      <c r="N48" s="7">
+      <c r="N48" s="2">
         <v>1976</v>
       </c>
-      <c r="O48" s="7">
+      <c r="O48" s="2">
         <v>1977</v>
       </c>
       <c r="Z48" s="2">
@@ -3833,7 +3952,7 @@
       <c r="N49" s="2">
         <v>23402</v>
       </c>
-      <c r="O49" s="7">
+      <c r="O49" s="2">
         <v>25057</v>
       </c>
       <c r="Z49" s="2">
@@ -3844,16 +3963,16 @@
       <c r="A50" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L50" s="7">
+      <c r="L50" s="2">
         <v>18208</v>
       </c>
-      <c r="M50" s="7">
+      <c r="M50" s="2">
         <v>18292</v>
       </c>
-      <c r="N50" s="7">
+      <c r="N50" s="2">
         <v>18714</v>
       </c>
-      <c r="O50" s="7">
+      <c r="O50" s="2">
         <v>18751</v>
       </c>
       <c r="Z50" s="2">
@@ -3864,16 +3983,16 @@
       <c r="A51" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L51" s="7">
+      <c r="L51" s="2">
         <v>9171</v>
       </c>
-      <c r="M51" s="7">
+      <c r="M51" s="2">
         <v>9987</v>
       </c>
-      <c r="N51" s="7">
+      <c r="N51" s="2">
         <v>10991</v>
       </c>
-      <c r="O51" s="7">
+      <c r="O51" s="2">
         <v>12046</v>
       </c>
     </row>
@@ -3881,16 +4000,16 @@
       <c r="A52" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="L52" s="7">
+      <c r="L52" s="2">
         <v>2347</v>
       </c>
-      <c r="M52" s="7">
+      <c r="M52" s="2">
         <v>2716</v>
       </c>
-      <c r="N52" s="7">
+      <c r="N52" s="2">
         <v>2760</v>
       </c>
-      <c r="O52" s="7">
+      <c r="O52" s="2">
         <v>2740</v>
       </c>
       <c r="Z52" s="2">
@@ -3992,7 +4111,10 @@
         <f>+O14/O44</f>
         <v>6.2213310533887033E-2</v>
       </c>
-      <c r="Z59" s="9">
+      <c r="P59" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z59" s="8">
         <f>+Z14/Z44</f>
         <v>0.19095020428761367</v>
       </c>
@@ -4017,7 +4139,10 @@
         <f>+O14/O55</f>
         <v>9.4002153073255754E-2</v>
       </c>
-      <c r="Z60" s="9">
+      <c r="P60" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z60" s="8">
         <f>+Z14/(Z44-Z53)</f>
         <v>0.30185324394397312</v>
       </c>
@@ -4027,55 +4152,55 @@
         <v>74</v>
       </c>
       <c r="B62" s="2">
-        <f t="shared" ref="B62:O62" si="76">+B14</f>
+        <f t="shared" ref="B62:N62" si="85">+B14</f>
         <v>7465</v>
       </c>
       <c r="C62" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="85"/>
         <v>6687</v>
       </c>
       <c r="D62" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="85"/>
         <v>4395</v>
       </c>
       <c r="E62" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="85"/>
         <v>4652</v>
       </c>
       <c r="F62" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="85"/>
         <v>5709</v>
       </c>
       <c r="G62" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="85"/>
         <v>7788</v>
       </c>
       <c r="H62" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="85"/>
         <v>11583</v>
       </c>
       <c r="I62" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="85"/>
         <v>14017</v>
       </c>
       <c r="J62" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="85"/>
         <v>12369</v>
       </c>
       <c r="K62" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="85"/>
         <v>13465</v>
       </c>
       <c r="L62" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="85"/>
         <v>15688</v>
       </c>
       <c r="M62" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="85"/>
         <v>20838</v>
       </c>
       <c r="N62" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="85"/>
         <v>16644</v>
       </c>
       <c r="O62" s="2">
@@ -4108,7 +4233,7 @@
         <v>4342</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>76</v>
       </c>
@@ -4119,7 +4244,7 @@
         <v>4834</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>77</v>
       </c>
@@ -4130,7 +4255,7 @@
         <v>-1170</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>78</v>
       </c>
@@ -4141,7 +4266,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>56</v>
       </c>
@@ -4152,7 +4277,7 @@
         <v>-336</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>79</v>
       </c>
@@ -4163,7 +4288,7 @@
         <v>-1338</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>80</v>
       </c>
@@ -4174,7 +4299,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>49</v>
       </c>
@@ -4185,7 +4310,7 @@
         <v>-190</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>81</v>
       </c>
@@ -4196,7 +4321,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>72</v>
       </c>
@@ -4207,7 +4332,7 @@
         <v>-1107</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>56</v>
       </c>
@@ -4218,7 +4343,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="75" spans="1:15" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>82</v>
       </c>
@@ -4236,8 +4361,11 @@
         <f>+SUM(O63:O74)</f>
         <v>25561</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>29999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>83</v>
       </c>
@@ -4248,7 +4376,7 @@
         <v>-16538</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>84</v>
       </c>
@@ -4259,7 +4387,7 @@
         <v>-7746</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>85</v>
       </c>
@@ -4270,7 +4398,7 @@
         <v>14273</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>86</v>
       </c>
@@ -4281,7 +4409,7 @@
         <v>-15114</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>87</v>
       </c>
@@ -4292,7 +4420,7 @@
         <v>-775</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>88</v>
       </c>
@@ -4303,7 +4431,7 @@
         <v>-61</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>56</v>
       </c>
@@ -4314,7 +4442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:15" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>89</v>
       </c>
@@ -4332,13 +4460,16 @@
         <f>+SUM(O77:O83)</f>
         <v>-25958</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>-21848</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="N85" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>27</v>
       </c>
@@ -4349,7 +4480,7 @@
         <v>-4110</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>90</v>
       </c>
@@ -4360,7 +4491,7 @@
         <v>-10167</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>91</v>
       </c>
@@ -4371,7 +4502,7 @@
         <v>-1327</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>92</v>
       </c>
@@ -4382,7 +4513,7 @@
         <v>-474</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>56</v>
       </c>
@@ -4393,7 +4524,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="91" spans="1:15" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>93</v>
       </c>
@@ -4411,8 +4542,11 @@
         <f>+SUM(O86:O90)</f>
         <v>-15977</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="P91" s="3">
+        <v>-10047</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>94</v>
       </c>
@@ -4432,31 +4566,64 @@
         <f>+O91+O84+O75</f>
         <v>-16374</v>
       </c>
+      <c r="P93" s="3">
+        <f>+P91+P84+P75</f>
+        <v>-1896</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L94" s="2">
+        <v>8258</v>
+      </c>
+      <c r="M94" s="2">
+        <v>14425</v>
+      </c>
+      <c r="N94" s="2">
+        <v>12941</v>
+      </c>
+      <c r="O94" s="2">
+        <v>16538</v>
+      </c>
+      <c r="P94" s="2">
+        <v>18829</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L95" s="2">
+        <f t="shared" ref="L95:N95" si="86">+L75-L94</f>
+        <v>16466</v>
+      </c>
+      <c r="M95" s="2">
+        <f t="shared" si="86"/>
+        <v>13563</v>
+      </c>
+      <c r="N95" s="2">
+        <f t="shared" si="86"/>
+        <v>11085</v>
+      </c>
+      <c r="O95" s="2">
+        <f>+O75-O94</f>
+        <v>9023</v>
+      </c>
+      <c r="P95" s="2">
+        <f>+P75-P94</f>
+        <v>11170</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="de0fd296-9832-4e10-a7ad-2bcee574d3b0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010078CBFEB144F63F4E9EB43CF067A3FDD2" ma:contentTypeVersion="9" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="f59182e7d3e0cf5298e8ad942a121699">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="de0fd296-9832-4e10-a7ad-2bcee574d3b0" xmlns:ns4="02570eab-4ecf-4bb5-b806-a666b23f79b6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f61c57c9eb7d1a1f1952f23e1a76f510" ns3:_="" ns4:_="">
     <xsd:import namespace="de0fd296-9832-4e10-a7ad-2bcee574d3b0"/>
@@ -4651,32 +4818,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34E1E6AC-BE1F-4454-ACC0-808E93021859}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="02570eab-4ecf-4bb5-b806-a666b23f79b6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="de0fd296-9832-4e10-a7ad-2bcee574d3b0"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3CAFD1E-70C1-468B-BCA7-27CB3B3A9D77}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="de0fd296-9832-4e10-a7ad-2bcee574d3b0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20302561-F91D-4714-9836-447F718E17F3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4693,4 +4852,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3CAFD1E-70C1-468B-BCA7-27CB3B3A9D77}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34E1E6AC-BE1F-4454-ACC0-808E93021859}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="02570eab-4ecf-4bb5-b806-a666b23f79b6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="de0fd296-9832-4e10-a7ad-2bcee574d3b0"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>